--- a/JPADSandBox_v2/out/CS300/Aerdoynamic Comparison Results.xlsx
+++ b/JPADSandBox_v2/out/CS300/Aerdoynamic Comparison Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="36">
   <si>
     <t>Alpha Wing</t>
   </si>
@@ -54,6 +54,72 @@
   </si>
   <si>
     <t>CD fuselage</t>
+  </si>
+  <si>
+    <t>CM fuselage</t>
+  </si>
+  <si>
+    <t>CZ wing</t>
+  </si>
+  <si>
+    <t>CX wing</t>
+  </si>
+  <si>
+    <t>CMcg wing</t>
+  </si>
+  <si>
+    <t>CZ htail</t>
+  </si>
+  <si>
+    <t>CX htail</t>
+  </si>
+  <si>
+    <t>CMcg htail</t>
+  </si>
+  <si>
+    <t>CZ body</t>
+  </si>
+  <si>
+    <t>CX body</t>
+  </si>
+  <si>
+    <t>CMcg body</t>
+  </si>
+  <si>
+    <t>CMcg wing-body untrimmed</t>
+  </si>
+  <si>
+    <t>CMcg wing-body-htail untrimmed</t>
+  </si>
+  <si>
+    <t>CL wing-body untrimmed</t>
+  </si>
+  <si>
+    <t>CL htail trimmed</t>
+  </si>
+  <si>
+    <t>delta CL htail trimmed</t>
+  </si>
+  <si>
+    <t>CD htail trimmed ref to Sh</t>
+  </si>
+  <si>
+    <t>CD htail trimmed ref to Sw</t>
+  </si>
+  <si>
+    <t>delta CD htail trimmed</t>
+  </si>
+  <si>
+    <t>delta equilibratore</t>
+  </si>
+  <si>
+    <t>CL total trimmed</t>
+  </si>
+  <si>
+    <t>CD total trimmed</t>
+  </si>
+  <si>
+    <t>CM total trimmed</t>
   </si>
 </sst>
 </file>
@@ -275,6 +341,87 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -295,8 +442,12 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2"/>
-      <c r="H2"/>
+      <c r="G2" t="n">
+        <v>-3.9044230079936337</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.2734581133298905</v>
+      </c>
       <c r="I2" t="n">
         <v>-0.9368916995558941</v>
       </c>
@@ -313,7 +464,90 @@
       <c r="N2" t="n">
         <v>0.0</v>
       </c>
-      <c r="O2"/>
+      <c r="O2" t="n">
+        <v>0.010979241946161091</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.1045746383097439</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.015988331176645845</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.583248275773732E-4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.12036191734011104</v>
+      </c>
+      <c r="U2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.2728234239812769</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.01862039400967833</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.25555572610050203</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-7.658732025477852E-4</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.010952497064595012</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.10152561279375028</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.2218875301338613</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.033668195966640724</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.9528897763286563</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.2369605056320767</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.036497607697813794</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.7732248756390394</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.06596875467819142</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.035176858758898116</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-1.8753452413230156</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -334,8 +568,12 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3"/>
-      <c r="H3"/>
+      <c r="G3" t="n">
+        <v>-2.997123144680864</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.20991261420287016</v>
+      </c>
       <c r="I3" t="n">
         <v>-0.7191791952484415</v>
       </c>
@@ -352,7 +590,90 @@
       <c r="N3" t="n">
         <v>0.0</v>
       </c>
-      <c r="O3"/>
+      <c r="O3" t="n">
+        <v>0.010607088088631755</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.07609512162300788</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.10187362039350621</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.001123011862805511</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.13636744939490622</v>
+      </c>
+      <c r="U3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.20962548760877334</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.010975451984635105</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.19673469456251869</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-4.870092861203799E-4</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.010595902022726814</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.07313950751952623</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.20950695691443244</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.012772262351913768</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.6172993852381936</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.22333957556797104</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.013426961365100881</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.2844586587071629</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.05478153950110704</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.03517592729758049</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1.5573587879480035</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -373,8 +694,12 @@
       <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="G4" t="n">
+        <v>-2.064236229982299</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.14457504828818124</v>
+      </c>
       <c r="I4" t="n">
         <v>-0.49532691151381547</v>
       </c>
@@ -391,7 +716,90 @@
       <c r="N4" t="n">
         <v>0.0</v>
       </c>
-      <c r="O4"/>
+      <c r="O4" t="n">
+        <v>0.01035830530207876</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.047615604936271864</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.2197395244170905</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.002826076578654648</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.1217441294732295</v>
+      </c>
+      <c r="U4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.14448122948221132</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.005207582437035781</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.13586312742065923</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-2.2834343741920656E-4</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.010355788140246038</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.044721253621097024</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.1664653830943265</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.030602255673667297</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.27556921472055745</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.17726954029832426</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.03269449201014302</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.6926534672610534</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.1823747621263093</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.0351967922265502</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>5.181573393178072</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -412,8 +820,12 @@
       <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="G5"/>
-      <c r="H5"/>
+      <c r="G5" t="n">
+        <v>-1.1441428409766328</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.08013351576732668</v>
+      </c>
       <c r="I5" t="n">
         <v>-0.2745445174927763</v>
       </c>
@@ -430,7 +842,90 @@
       <c r="N5" t="n">
         <v>0.0</v>
       </c>
-      <c r="O5"/>
+      <c r="O5" t="n">
+        <v>0.010276698022155925</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.01913608824953585</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.33740768748911076</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.012403214105129885</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.14693450230738633</v>
+      </c>
+      <c r="U5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.08011753914385475</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.0016000846119173624</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.07548432447658553</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.8880222717972607E-5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.01027668067888526</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.01625818197025628</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.1631926842776426</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.0877083598010571</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.0630910660834918</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.17332250718477488</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.0931889914174482</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-1.977535639727074</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.30108500668925037</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.03523636560922585</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>8.544723653634074</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -451,8 +946,12 @@
       <c r="F6" t="s">
         <v>5</v>
       </c>
-      <c r="G6"/>
-      <c r="H6"/>
+      <c r="G6" t="n">
+        <v>-0.2190131918985725</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.015339253489779287</v>
+      </c>
       <c r="I6" t="n">
         <v>-0.052553640105828754</v>
       </c>
@@ -469,7 +968,90 @@
       <c r="N6" t="n">
         <v>0.0</v>
       </c>
-      <c r="O6"/>
+      <c r="O6" t="n">
+        <v>0.010403625733231031</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.009343428437200166</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.45467657029271247</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.027599603359634392</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.17184295807688454</v>
+      </c>
+      <c r="U6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.015339141425040167</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.863417367675545E-5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.014480102702185067</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2.675584260259026E-4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.010400184656332283</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.012261654449195483</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.15958130362768908</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-0.145101200925504</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.4029598302534495</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.1690238930737876</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-0.1536846395840083</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-3.272790430477661</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.4198693933153753</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.03529541586608939</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>11.895861913296542</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -490,8 +1072,12 @@
       <c r="F7" t="s">
         <v>5</v>
       </c>
-      <c r="G7"/>
-      <c r="H7"/>
+      <c r="G7" t="n">
+        <v>0.7445684771328231</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.05214811268778988</v>
+      </c>
       <c r="I7" t="n">
         <v>0.1786640496043947</v>
       </c>
@@ -508,7 +1094,90 @@
       <c r="N7" t="n">
         <v>0.0</v>
       </c>
-      <c r="O7"/>
+      <c r="O7" t="n">
+        <v>0.01077872547202763</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.03782294512393619</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.571344979229079</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.04840003259501671</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.19644327751726892</v>
+      </c>
+      <c r="U7" t="s">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.05214370950703462</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6.776545907903228E-4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.04943998955588115</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>5.344496794950302E-4</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.010765467307155082</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.040849609190386126</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.1555936683268828</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.20503365788276393</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.7520554067466831</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.1643284038657281</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.216476516553518</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-4.6172091106619355</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.5387374737097574</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.03537398652948808</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>15.229764201460894</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -529,8 +1198,12 @@
       <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="G8"/>
-      <c r="H8"/>
+      <c r="G8" t="n">
+        <v>1.722932951492374</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.12067083749491432</v>
+      </c>
       <c r="I8" t="n">
         <v>0.4134289696172119</v>
       </c>
@@ -547,7 +1220,90 @@
       <c r="N8" t="n">
         <v>0.0</v>
       </c>
-      <c r="O8"/>
+      <c r="O8" t="n">
+        <v>0.011440520323854881</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.06630246181067218</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.6872122577828428</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.07478288808318004</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.22070947873217805</v>
+      </c>
+      <c r="U8" t="s">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.12061628293029636</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.003628128140339074</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.11459541580442506</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8.399792634817263E-4</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.011409642418474704</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.06951654545740185</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.1511929332747762</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.26578834907920124</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1.1046982135425105</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.15919131531096928</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.2798621528058836</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-6.007877696696282</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.657698679406427</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.03547212731279403</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>18.541280978353086</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -568,8 +1324,12 @@
       <c r="F9" t="s">
         <v>5</v>
       </c>
-      <c r="G9"/>
-      <c r="H9"/>
+      <c r="G9" t="n">
+        <v>2.717274817448314</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.19031258740585982</v>
+      </c>
       <c r="I9" t="n">
         <v>0.6520277686786272</v>
       </c>
@@ -586,7 +1346,90 @@
       <c r="N9" t="n">
         <v>0.0</v>
       </c>
-      <c r="O9"/>
+      <c r="O9" t="n">
+        <v>0.012426921251236848</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.09478197849740819</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.8020628625548977</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.10671809436916715</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.24461395297766758</v>
+      </c>
+      <c r="U9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.19009860504263565</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.009022266120939553</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.18098348339390463</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.0012081106014538475</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.012368057266971915</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.09827291347931505</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.14634103949835253</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.32732452289225716</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1.4611591468586749</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.15356643406115403</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.3438790214670139</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-7.4257023900177295</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.7767469992174612</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.0355898776099609</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21.824941567095053</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -607,8 +1450,12 @@
       <c r="F10" t="s">
         <v>5</v>
       </c>
-      <c r="G10"/>
-      <c r="H10"/>
+      <c r="G10" t="n">
+        <v>3.7316554721620614</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2613578146951292</v>
+      </c>
       <c r="I10" t="n">
         <v>0.8954350054574485</v>
       </c>
@@ -625,7 +1472,90 @@
       <c r="N10" t="n">
         <v>0.0</v>
       </c>
-      <c r="O10"/>
+      <c r="O10" t="n">
+        <v>0.01377563056365423</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.12326149518414423</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.9142858449159524</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.14394785067230048</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.267951697865589</v>
+      </c>
+      <c r="U10" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.26080368708949786</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.017010117657935062</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-0.24882298595826727</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.0016662664515409455</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.013674485494480358</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.12712880269672802</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-0.14082289516886096</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-0.3896458811271283</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1.8209832699617108</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-0.1472199396751441</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>-0.4085777543702733</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-8.907179773549363</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.8945022462357756</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.0357255764474023</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>25.03814732150577</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -646,8 +1576,12 @@
       <c r="F11" t="s">
         <v>5</v>
       </c>
-      <c r="G11"/>
-      <c r="H11"/>
+      <c r="G11" t="n">
+        <v>4.7743113058347255</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.3343833799437693</v>
+      </c>
       <c r="I11" t="n">
         <v>1.1456270553612387</v>
       </c>
@@ -664,7 +1598,90 @@
       <c r="N11" t="n">
         <v>0.0</v>
       </c>
-      <c r="O11"/>
+      <c r="O11" t="n">
+        <v>0.015524456034734832</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.15174101187088024</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.0199286805436723</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.185642822537783</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.2902277336301563</v>
+      </c>
+      <c r="U11" t="s">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.33322316198671786</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.02783108151317117</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.31860662302850934</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.0022452848030758256</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.015361231439161753</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.15609396995674935</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.13413376367340696</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.45274038670191624</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>2.182313011162392</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.13961115352680376</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.4739945334705731</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-10.48991880826912</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1.0072444926919992</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.0358734171437062</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>28.07774036850334</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -685,8 +1702,12 @@
       <c r="F12" t="s">
         <v>5</v>
       </c>
-      <c r="G12"/>
-      <c r="H12"/>
+      <c r="G12" t="n">
+        <v>5.862513152246679</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.4105988984039047</v>
+      </c>
       <c r="I12" t="n">
         <v>1.4067481673046554</v>
       </c>
@@ -703,7 +1724,90 @@
       <c r="N12" t="n">
         <v>0.0</v>
       </c>
-      <c r="O12"/>
+      <c r="O12" t="n">
+        <v>0.017711545114729055</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.18022052855761625</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.1150983886438781</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.23060531738064616</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.3109700210220383</v>
+      </c>
+      <c r="U12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.4084514079317458</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.04193927430314746</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.39142206245717437</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.0029793959969070067</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.01745915318234814</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.18517784543812701</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.1257921755839113</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.5172142380410857</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>2.545441817396901</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.13022388721136857</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.5408227856152732</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-12.248252177264202</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1.111231791391049</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.036025317411004905</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>30.84585705972415</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -724,8 +1828,12 @@
       <c r="F13" t="s">
         <v>5</v>
       </c>
-      <c r="G13"/>
-      <c r="H13"/>
+      <c r="G13" t="n">
+        <v>7.002174228493997</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.4904185201785063</v>
+      </c>
       <c r="I13" t="n">
         <v>1.6802172561961604</v>
       </c>
@@ -742,7 +1850,90 @@
       <c r="N13" t="n">
         <v>0.0</v>
       </c>
-      <c r="O13"/>
+      <c r="O13" t="n">
+        <v>0.020375548890209618</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.20870004524435226</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.1962464228996033</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.2773329284809046</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.32976498135556853</v>
+      </c>
+      <c r="U13" t="s">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.4867607465419811</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.05978545441802094</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.4675784300387318</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.003906209353535112</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.019997612884133875</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.21438951843663837</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.11537546291893017</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.582953892957662</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>2.9081908135335697</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.11860407898916571</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.609022599167672</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-14.428594896261185</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1.2029621056879938</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.036171692529771225</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>33.257003517264</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -763,8 +1954,12 @@
       <c r="F14" t="s">
         <v>5</v>
       </c>
-      <c r="G14"/>
-      <c r="H14"/>
+      <c r="G14" t="n">
+        <v>8.209738201182425</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5749939273565862</v>
+      </c>
       <c r="I14" t="n">
         <v>1.969980086806028</v>
       </c>
@@ -781,7 +1976,90 @@
       <c r="N14" t="n">
         <v>0.0</v>
       </c>
-      <c r="O14"/>
+      <c r="O14" t="n">
+        <v>0.02355572543124861</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.23717956193108827</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.260182924327965</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.3240535916886682</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-0.3462579777416964</v>
+      </c>
+      <c r="U14" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.5691013751418421</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.08210749849200995</v>
+      </c>
+      <c r="X14" t="n">
+        <v>-0.54805920368654</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.0050666994203869</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.023004363881138367</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.2437377054350992</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>-0.10252027230659722</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>-0.6505794759931373</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>3.2711609862408864</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>-0.10436034659060846</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>-0.6793542739471946</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>-22.394696900793157</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.2791731929114964</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.03630212876130907</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>35.23686451894368</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -802,8 +2080,12 @@
       <c r="F15" t="s">
         <v>5</v>
       </c>
-      <c r="G15"/>
-      <c r="H15"/>
+      <c r="G15" t="n">
+        <v>9.499571714613559</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.6653313314673646</v>
+      </c>
       <c r="I15" t="n">
         <v>2.2794840288913463</v>
       </c>
@@ -820,7 +2102,90 @@
       <c r="N15" t="n">
         <v>0.0</v>
       </c>
-      <c r="O15"/>
+      <c r="O15" t="n">
+        <v>0.027291991962647984</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.2656590786178243</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.3040886020597946</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.3687611216124196</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.3601534595337741</v>
+      </c>
+      <c r="U15" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.6562075332982318</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.10980643822101757</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.6336620400570496</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.0065051837776088995</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.02650538453425598</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.2732307030685695</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.08692275646520459</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.7205847965222543</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>3.634707939112502</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.0871641995066841</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.7524955309740486</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-25.0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1.3368425595955962</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.03640615434752471</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>36.72023545344578</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -841,8 +2206,12 @@
       <c r="F16" t="s">
         <v>5</v>
       </c>
-      <c r="G16"/>
-      <c r="H16"/>
+      <c r="G16" t="n">
+        <v>10.872721902890543</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.7615040717252819</v>
+      </c>
       <c r="I16" t="n">
         <v>2.6089803490919103</v>
       </c>
@@ -859,7 +2228,90 @@
       <c r="N16" t="n">
         <v>0.0</v>
       </c>
-      <c r="O16"/>
+      <c r="O16" t="n">
+        <v>0.0316249349254377</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.29413859530456027</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.3255242310683606</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.40925109902956974</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-0.3712147737328589</v>
+      </c>
+      <c r="U16" t="s">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.7478340291194393</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.1436409278206208</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-0.7242413869979717</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.008269286116971841</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.030524668976973788</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.3028763286818731</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>-0.0683384450509858</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>-0.7925798320489575</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>3.996244184563116</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>-0.06674991221878288</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>-0.8282539839440648</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>-25.0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.3731874882132387</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.0364740704197335</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>37.64832036597444</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -880,8 +2332,12 @@
       <c r="F17" t="s">
         <v>5</v>
       </c>
-      <c r="G17"/>
-      <c r="H17"/>
+      <c r="G17" t="n">
+        <v>12.358057548385183</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8655539860634164</v>
+      </c>
       <c r="I17" t="n">
         <v>2.9654645648858637</v>
       </c>
@@ -898,7 +2354,90 @@
       <c r="N17" t="n">
         <v>0.0</v>
       </c>
-      <c r="O17"/>
+      <c r="O17" t="n">
+        <v>0.036595786483970785</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.32261811199129636</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.3224377618825602</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.44315698121144165</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-0.37926364790490213</v>
+      </c>
+      <c r="U17" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.8454984165639005</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.18524613458370986</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-0.8214200421117145</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.010409879985362644</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.035083984766139734</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.3326818511736105</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>-0.04658179673129165</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>-0.8680018388430062</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>4.360179497784122</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>-0.0429140605958457</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>-0.9084680466592621</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>-25.0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.3856651349417217</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.036497806872738466</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>37.965709549981895</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -919,8 +2458,12 @@
       <c r="F18" t="s">
         <v>5</v>
       </c>
-      <c r="G18"/>
-      <c r="H18"/>
+      <c r="G18" t="n">
+        <v>13.94581783899281</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9766119170628002</v>
+      </c>
       <c r="I18" t="n">
         <v>3.3459588660282558</v>
       </c>
@@ -937,7 +2480,90 @@
       <c r="N18" t="n">
         <v>0.0</v>
       </c>
-      <c r="O18"/>
+      <c r="O18" t="n">
+        <v>0.04224637540893021</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.3510976286780323</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.2931690433163885</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.4679863070625764</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.38417934995584047</v>
+      </c>
+      <c r="U18" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.947825370165165</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.23536759381942488</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.9239819502599244</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.012981010126023838</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.040202607021191175</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.3626539147399746</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.021525435215865862</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.9455073854757903</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>4.721203338182168</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-0.015514724536015592</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-0.9921266415988157</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-25.0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1.3719726978111255</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.03647177097128001</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>37.617386303821014</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -958,8 +2584,12 @@
       <c r="F19" t="s">
         <v>5</v>
       </c>
-      <c r="G19"/>
-      <c r="H19"/>
+      <c r="G19" t="n">
+        <v>15.644221930369653</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.0939004833490586</v>
+      </c>
       <c r="I19" t="n">
         <v>3.747799875125848</v>
       </c>
@@ -976,7 +2606,90 @@
       <c r="N19" t="n">
         <v>0.0</v>
       </c>
-      <c r="O19"/>
+      <c r="O19" t="n">
+        <v>0.048619059553481746</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.3795771453647684</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.2364521652203182</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.48115686943578273</v>
+      </c>
+      <c r="T19" t="n">
+        <v>-0.38589753089091916</v>
+      </c>
+      <c r="U19" t="s">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.0533766366085908</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.294984624884886</v>
+      </c>
+      <c r="X19" t="n">
+        <v>-1.030680960991135</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.016039789728990582</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.04589703800153963</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.3927984579853206</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.006900927094401432</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>-1.0237800338967336</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>5.074572609953956</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.015529639158689774</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>-1.0783708441903688</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>-25.0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1.3300476543946254</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.03639365914859228</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>36.546137033491235</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -997,8 +2710,12 @@
       <c r="F20" t="s">
         <v>5</v>
       </c>
-      <c r="G20"/>
-      <c r="H20"/>
+      <c r="G20" t="n">
+        <v>17.46799466062062</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.2148775785157127</v>
+      </c>
       <c r="I20" t="n">
         <v>4.162278110632758</v>
       </c>
@@ -1015,7 +2732,90 @@
       <c r="N20" t="n">
         <v>0.0</v>
       </c>
-      <c r="O20"/>
+      <c r="O20" t="n">
+        <v>0.055756646363870406</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.4080566620515043</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.1514154342014502</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.4800327276983184</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-0.38440875745024916</v>
+      </c>
+      <c r="U20" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.158853226567941</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.3646734567435284</v>
+      </c>
+      <c r="X20" t="n">
+        <v>-1.13846910011098</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.019646273097408632</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.052180720262638584</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.4231206306674495</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.03871187321720032</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>-1.0997572268937794</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>5.409751125081889</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.05024164872652354</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>-1.164635929789189</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>-25.0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1.2580680679972063</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.036265205136677116</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>34.69077489719888</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1036,8 +2836,12 @@
       <c r="F21" t="s">
         <v>5</v>
       </c>
-      <c r="G21"/>
-      <c r="H21"/>
+      <c r="G21" t="n">
+        <v>19.375081705210413</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.3300575316624808</v>
+      </c>
       <c r="I21" t="n">
         <v>4.556894824484885</v>
       </c>
@@ -1054,7 +2858,90 @@
       <c r="N21" t="n">
         <v>0.0</v>
       </c>
-      <c r="O21"/>
+      <c r="O21" t="n">
+        <v>0.06370230705087919</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.4365361787382404</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.0375790011580015</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.461959934589321</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-0.3797567422624075</v>
+      </c>
+      <c r="U21" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.2547324203220762</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.44124776591479276</v>
+      </c>
+      <c r="X21" t="n">
+        <v>-1.2379859591020252</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.023863304237064283</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.05906375059623121</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.4536247101068579</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.07386796784445038</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>-1.1641179912575748</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>5.6926664409685</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.08858676826704576</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>-1.241470763395435</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>-25.0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1.154452961089745</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.036092840240533046</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>31.985650156544597</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/JPADSandBox_v2/out/CS300/Aerdoynamic Comparison Results.xlsx
+++ b/JPADSandBox_v2/out/CS300/Aerdoynamic Comparison Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="36">
   <si>
     <t>Alpha Wing</t>
   </si>
@@ -425,31 +425,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.9999999999999996</v>
+        <v>-2.0269999999999984</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.0</v>
+        <v>-4.026999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.015648231912484822</v>
+        <v>-0.017923192389428078</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.07370445300398575</v>
+        <v>-0.07369543945175024</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.9061352512377</v>
+        <v>-3.9417123547792148</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.26875369506282326</v>
+        <v>-0.27120150534624476</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.9207739461932893</v>
+        <v>-0.9291603608755942</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
@@ -465,46 +465,46 @@
         <v>0.0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.010637022108177819</v>
+        <v>0.010645387928411134</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.1045746383097439</v>
+        <v>-0.10513656108129371</v>
       </c>
       <c r="Q2" t="s">
         <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.015638699432404812</v>
+        <v>-0.017911977311220788</v>
       </c>
       <c r="S2" t="n">
-        <v>5.461154180297344E-4</v>
+        <v>6.339512842201047E-4</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.0716132854556088</v>
+        <v>-0.07129995131215994</v>
       </c>
       <c r="U2" t="s">
         <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.2681293775458798</v>
+        <v>-0.270559977669393</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01830807217541077</v>
+        <v>0.01864282665281216</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2517556738287172</v>
+        <v>0.2540187751941785</v>
       </c>
       <c r="Y2" t="s">
         <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>-7.420011534047862E-4</v>
+        <v>-7.475889417714309E-4</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.010611110856937158</v>
+        <v>0.010619105184548394</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.1016206500488911</v>
+        <v>-0.10218046335522875</v>
       </c>
       <c r="AC2" t="s">
         <v>5</v>
@@ -513,19 +513,19 @@
         <v>5</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.1732339355044999</v>
+        <v>-0.17348041466738867</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.07852173832421731</v>
+        <v>0.0805383605267898</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.9364221781057742</v>
+        <v>-0.9470835532650222</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.18542968717724942</v>
+        <v>-0.185700828772452</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.08332400788557384</v>
+        <v>0.08550067657379276</v>
       </c>
       <c r="AJ2" t="n">
         <v>0.0</v>
@@ -537,45 +537,45 @@
         <v>5</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.7983440108777304</v>
+        <v>1.845784612239461</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.05475199372849819</v>
+        <v>-0.05708413305591905</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.03378324050894319</v>
+        <v>0.0337834203509936</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1.6206850764953733</v>
+        <v>-1.6897085156814253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.631578947368421</v>
+        <v>-0.9979499999999992</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.6315789473684212</v>
+        <v>-2.9979499999999994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09965190921914727</v>
+        <v>0.06878229201051857</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.07416128021280344</v>
+        <v>-0.07403897263426729</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.9891273165835806</v>
+        <v>-3.2436409956217984</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.20566082833166424</v>
+        <v>-0.22317212460945718</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7046122005357399</v>
+        <v>-0.7646074514769192</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
@@ -591,46 +591,46 @@
         <v>0.0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.010262198462626047</v>
+        <v>0.010352023609586772</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.07609512162300788</v>
+        <v>-0.08372001930116955</v>
       </c>
       <c r="Q3" t="s">
         <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09964585495652564</v>
+        <v>0.06877185904027379</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.0010984539153838567</v>
+        <v>-0.0011979559111082079</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.08738886160236767</v>
+        <v>-0.08318603898533972</v>
       </c>
       <c r="U3" t="s">
         <v>5</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.20538101613400794</v>
+        <v>-0.22281459315546207</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01072448235714167</v>
+        <v>0.01262752072518579</v>
       </c>
       <c r="X3" t="n">
-        <v>0.19321193784753343</v>
+        <v>0.20950036228721325</v>
       </c>
       <c r="Y3" t="s">
         <v>5</v>
       </c>
       <c r="Z3" t="n">
-        <v>-4.7117417198275127E-4</v>
+        <v>-5.414131742766601E-4</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.010251376111819368</v>
+        <v>0.01033785589898416</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.07323560935579357</v>
+        <v>-0.08083791356288904</v>
       </c>
       <c r="AC3" t="s">
         <v>5</v>
@@ -639,19 +639,19 @@
         <v>5</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.16062447095816124</v>
+        <v>-0.16402395254822877</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.032587466889372196</v>
+        <v>0.045476409738984494</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.6049602913165927</v>
+        <v>-0.6958251594664007</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.1715738955863673</v>
+        <v>-0.1753065375116892</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.03408693274529695</v>
+        <v>0.047865587097767975</v>
       </c>
       <c r="AJ3" t="n">
         <v>0.0</v>
@@ -663,45 +663,45 @@
         <v>5</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.7351164224461297</v>
+        <v>1.032265924555786</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.06347008284071172</v>
+        <v>0.03181331906987838</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.03378395118964459</v>
+        <v>0.033781871309041006</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.878705142700019</v>
+        <v>0.941727554961238</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7368421052631577</v>
+        <v>0.03110000000000035</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.263157894736842</v>
+        <v>-1.9688999999999997</v>
       </c>
       <c r="C4" t="n">
-        <v>0.21495205035077936</v>
+        <v>0.15548777641046524</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.07461810889684375</v>
+        <v>-0.07438250044466681</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.046837101652782</v>
+        <v>-2.531242276424103</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.14082846570316823</v>
+        <v>-0.17415697899161475</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4824907879742486</v>
+        <v>-0.596677224347467</v>
       </c>
       <c r="J4" t="s">
         <v>5</v>
@@ -717,46 +717,46 @@
         <v>0.0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.010012901112135951</v>
+        <v>0.010123162744499892</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.047615604936271864</v>
+        <v>-0.0623034775210454</v>
       </c>
       <c r="Q4" t="s">
         <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>0.21493427536690413</v>
+        <v>0.15548775350486063</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00276427612727314</v>
+        <v>8.439835621411916E-5</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.10294104748151085</v>
+        <v>-0.09494974996789783</v>
       </c>
       <c r="U4" t="s">
         <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.14073861208692717</v>
+        <v>-0.173987051981534</v>
       </c>
       <c r="W4" t="n">
-        <v>0.005029892658284531</v>
+        <v>0.007691493630025688</v>
       </c>
       <c r="X4" t="n">
-        <v>0.13266183194345516</v>
+        <v>0.16383563329400344</v>
       </c>
       <c r="Y4" t="s">
         <v>5</v>
       </c>
       <c r="Z4" t="n">
-        <v>-2.2072918221717954E-4</v>
+        <v>-3.4780175395388995E-4</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.010010467886644015</v>
+        <v>0.010117186263560497</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.04481776758185344</v>
+        <v>-0.059478691409489234</v>
       </c>
       <c r="AC4" t="s">
         <v>5</v>
@@ -765,19 +765,19 @@
         <v>5</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.1477588150633643</v>
+        <v>-0.15442844137738707</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.01509698311990914</v>
+        <v>0.009407191916616375</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.26753873762346925</v>
+        <v>-0.4411894479370017</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.15746420055345298</v>
+        <v>-0.16477558166119083</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.016635734850284745</v>
+        <v>0.009381397330423924</v>
       </c>
       <c r="AJ4" t="n">
         <v>0.0</v>
@@ -789,45 +789,45 @@
         <v>5</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.3587651015502711</v>
+        <v>0.20231856279407934</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.18174570304617876</v>
+        <v>0.12073959128186082</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0338039497297682</v>
+        <v>0.033791225478201986</v>
       </c>
       <c r="AP4" t="n">
-        <v>5.376463534559429</v>
+        <v>3.5731048392946687</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.1052631578947363</v>
+        <v>1.06015</v>
       </c>
       <c r="B5" t="n">
-        <v>0.10526315789473673</v>
+        <v>-0.9398499999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3302521914824115</v>
+        <v>0.24219326081041193</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.07507493463043881</v>
+        <v>-0.07472602723121942</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.1171880268603243</v>
+        <v>-1.826007237246548</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07686585102334076</v>
+        <v>-0.12563471581429983</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.26334920886472835</v>
+        <v>-0.43043565608340356</v>
       </c>
       <c r="J5" t="s">
         <v>5</v>
@@ -843,46 +843,46 @@
         <v>0.0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.009931268199222392</v>
+        <v>0.00997694737749256</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.01913608824953585</v>
+        <v>-0.04088693574092123</v>
       </c>
       <c r="Q5" t="s">
         <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3300292790114664</v>
+        <v>0.24215180274440268</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01213198145840401</v>
+        <v>0.004481072373450795</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.1182438330848627</v>
+        <v>-0.10657998601507851</v>
       </c>
       <c r="U5" t="s">
         <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.076851239450587</v>
+        <v>-0.12557091846554455</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0014986822381526713</v>
+        <v>0.0040032803373537</v>
       </c>
       <c r="X5" t="n">
-        <v>0.07258197474321713</v>
+        <v>0.11841937296147528</v>
       </c>
       <c r="Y5" t="s">
         <v>5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.8245603312366413E-5</v>
+        <v>-1.6364928739284117E-4</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.009931251438909687</v>
+        <v>0.009975605138736772</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.016354916802235154</v>
+        <v>-0.03809754275253373</v>
       </c>
       <c r="AC5" t="s">
         <v>5</v>
@@ -891,19 +891,19 @@
         <v>5</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.13459874988709786</v>
+        <v>-0.14467752876761225</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.06201677514388072</v>
+        <v>-0.026258155806136954</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.06690298261768313</v>
+        <v>-0.18824239527299164</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.1430550742387448</v>
+        <v>-0.15408853504436457</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0.06618922321540405</v>
+        <v>-0.028453819230064736</v>
       </c>
       <c r="AJ5" t="n">
         <v>0.0</v>
@@ -915,45 +915,45 @@
         <v>5</v>
       </c>
       <c r="AM5" t="n">
-        <v>-1.4274321875238085</v>
+        <v>-0.6136330878940708</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.30008446788453486</v>
+        <v>0.2096987802087506</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.03384326630295133</v>
+        <v>0.033811494646222254</v>
       </c>
       <c r="AP5" t="n">
-        <v>8.866888473420362</v>
+        <v>6.201996758879755</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.473684210526315</v>
+        <v>2.0891999999999995</v>
       </c>
       <c r="B6" t="n">
-        <v>1.4736842105263155</v>
+        <v>0.08919999999999995</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4455523326140436</v>
+        <v>0.3288987452103586</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.07553176183925657</v>
+        <v>-0.07506957218181848</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1812186203252546</v>
+        <v>-1.128036743251065</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.01246837876675338</v>
+        <v>-0.07761227489992731</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.042717769208763655</v>
+        <v>-0.2659065231305539</v>
       </c>
       <c r="J6" t="s">
         <v>5</v>
@@ -969,46 +969,46 @@
         <v>0.0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.010058233222756214</v>
+        <v>0.009931095540104403</v>
       </c>
       <c r="P6" t="n">
-        <v>0.009343428437200166</v>
+        <v>-0.019470393960797073</v>
       </c>
       <c r="Q6" t="s">
         <v>5</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4447337338215005</v>
+        <v>0.32868012068945224</v>
       </c>
       <c r="S6" t="n">
-        <v>0.026996057101030188</v>
+        <v>0.01199011528366264</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.13327149254937526</v>
+        <v>-0.11806574768955708</v>
       </c>
       <c r="U6" t="s">
         <v>5</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.012468316401885924</v>
+        <v>-0.0775972335222379</v>
       </c>
       <c r="W6" t="n">
-        <v>3.943569054787885E-5</v>
+        <v>0.0015279282827301637</v>
       </c>
       <c r="X6" t="n">
-        <v>0.011798715529196794</v>
+        <v>0.0732848647635874</v>
       </c>
       <c r="Y6" t="s">
         <v>5</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.586756885232842E-4</v>
+        <v>1.5461057897464844E-5</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.010054906387009472</v>
+        <v>0.00993108350495404</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.012164771551419137</v>
+        <v>-0.01668933379252672</v>
       </c>
       <c r="AC6" t="s">
         <v>5</v>
@@ -1017,19 +1017,19 @@
         <v>5</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.12110672099795612</v>
+        <v>-0.1347550814820838</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.10930800546875932</v>
+        <v>-0.06147021671849639</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.40283456340527996</v>
+        <v>0.0629922220798047</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.12830145694105283</v>
+        <v>-0.14322612569040313</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0.11583307817429944</v>
+        <v>-0.06561385079047583</v>
       </c>
       <c r="AJ6" t="n">
         <v>0.0</v>
@@ -1041,45 +1041,45 @@
         <v>5</v>
       </c>
       <c r="AM6" t="n">
-        <v>-2.506880800401662</v>
+        <v>-1.415023745797829</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.41849587963046775</v>
+        <v>0.29869494996006346</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.033901937308214634</v>
+        <v>0.033842692601891565</v>
       </c>
       <c r="AP6" t="n">
-        <v>12.344305749425823</v>
+        <v>8.825980647395903</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.842105263157894</v>
+        <v>3.1182499999999993</v>
       </c>
       <c r="B7" t="n">
-        <v>2.8421052631578947</v>
+        <v>1.1182499999999997</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5608524737456756</v>
+        <v>0.4156042296103053</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.07598858904807423</v>
+        <v>-0.07541310536433549</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7917571193591302</v>
+        <v>-0.43152267535000766</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05447523901089678</v>
+        <v>-0.029690040422169786</v>
       </c>
       <c r="I7" t="n">
-        <v>0.18663699035714057</v>
+        <v>-0.10172070629863943</v>
       </c>
       <c r="J7" t="s">
         <v>5</v>
@@ -1095,46 +1095,46 @@
         <v>0.0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01043374869370413</v>
+        <v>0.010002957894050406</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03782294512393619</v>
+        <v>0.0019461478193270876</v>
       </c>
       <c r="Q7" t="s">
         <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5588508458861939</v>
+        <v>0.41498888363933223</v>
       </c>
       <c r="S7" t="n">
-        <v>0.047341623957457536</v>
+        <v>0.022607567886797023</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.14799859392752163</v>
+        <v>-0.1293960763358661</v>
       </c>
       <c r="U7" t="s">
         <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>0.05447003784235392</v>
+        <v>-0.029689198366665996</v>
       </c>
       <c r="W7" t="n">
-        <v>7.527567647399708E-4</v>
+        <v>2.2360817255406482E-4</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.051649441818434984</v>
+        <v>0.02808009028129519</v>
       </c>
       <c r="Y7" t="s">
         <v>5</v>
       </c>
       <c r="Z7" t="n">
-        <v>5.173444355506792E-4</v>
+        <v>1.9521677907107752E-4</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01042091486091204</v>
+        <v>0.010001052796546695</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.04075273977651887</v>
+        <v>0.004750947519592813</v>
       </c>
       <c r="AC7" t="s">
         <v>5</v>
@@ -1143,19 +1143,19 @@
         <v>5</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.10724585415100275</v>
+        <v>-0.12464512881627329</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.15889529596943774</v>
+        <v>-0.09656503853497811</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.7474894641028161</v>
+        <v>0.31388352331166586</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.11315879158822739</v>
+        <v>-0.13216918008287606</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0.16763403059912418</v>
+        <v>-0.10247913966070628</v>
       </c>
       <c r="AJ7" t="n">
         <v>0.0</v>
@@ -1167,45 +1167,45 @@
         <v>5</v>
       </c>
       <c r="AM7" t="n">
-        <v>-3.635885112102823</v>
+        <v>-2.2158310521963838</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.5369893345633061</v>
+        <v>0.38773214388307087</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.03398000529291113</v>
+        <v>0.03388483512334071</v>
       </c>
       <c r="AP7" t="n">
-        <v>15.803097437284162</v>
+        <v>11.4426451382079</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.210526315789473</v>
+        <v>4.147299999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>4.210526315789473</v>
+        <v>2.1472999999999995</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6761526148773077</v>
+        <v>0.5023097140102519</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07644541684689536</v>
+        <v>-0.07575663854685251</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>1.779332957069503</v>
+        <v>0.2959415905104996</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1224233868522513</v>
+        <v>0.020361659506609276</v>
       </c>
       <c r="I8" t="n">
-        <v>0.41943335883045224</v>
+        <v>0.06976084764364682</v>
       </c>
       <c r="J8" t="s">
         <v>5</v>
@@ -1221,46 +1221,46 @@
         <v>0.0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01109699085974078</v>
+        <v>0.010209571023926877</v>
       </c>
       <c r="P8" t="n">
-        <v>0.06630246181067218</v>
+        <v>0.02336268959945125</v>
       </c>
       <c r="Q8" t="s">
         <v>5</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6721843466332791</v>
+        <v>0.5009943753361047</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0731475409471327</v>
+        <v>0.03632746441258155</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.16240003142351908</v>
+        <v>-0.1405601507917344</v>
       </c>
       <c r="U8" t="s">
         <v>5</v>
       </c>
       <c r="V8" t="n">
-        <v>0.12236435741113635</v>
+        <v>0.020361387894610273</v>
       </c>
       <c r="W8" t="n">
-        <v>0.003801273962194528</v>
+        <v>1.0517066278253794E-4</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.11626689224444813</v>
+        <v>-0.019287082220715263</v>
       </c>
       <c r="Y8" t="s">
         <v>5</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.147568419412341E-4</v>
+        <v>3.8253917438164914E-4</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.011067040138613411</v>
+        <v>0.010202401887431739</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.06942003477418784</v>
+        <v>0.02622818978776259</v>
       </c>
       <c r="AC8" t="s">
         <v>5</v>
@@ -1269,19 +1269,19 @@
         <v>5</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.09297999664933124</v>
+        <v>-0.1143319610039718</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.20924688889377935</v>
+        <v>-0.13361904322468707</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.09558597370776</v>
+        <v>0.5720705616538988</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.09758308339194667</v>
+        <v>-0.12089873138355754</v>
       </c>
       <c r="AI8" t="n">
-        <v>-0.22000647024419798</v>
+        <v>-0.14126039089016681</v>
       </c>
       <c r="AJ8" t="n">
         <v>0.0</v>
@@ -1293,45 +1293,45 @@
         <v>5</v>
       </c>
       <c r="AM8" t="n">
-        <v>-4.7773450159415916</v>
+        <v>-3.0610703345197727</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.6555741103869058</v>
+        <v>0.47681436174035474</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.034077518864824644</v>
+        <v>0.03393793995246777</v>
       </c>
       <c r="AP8" t="n">
-        <v>19.237730099640554</v>
+        <v>14.049596481346935</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7.578947368421051</v>
+        <v>5.1763499999999985</v>
       </c>
       <c r="B9" t="n">
-        <v>5.578947368421051</v>
+        <v>3.1763499999999993</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7914397440140257</v>
+        <v>0.5890151984101987</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0769022442062081</v>
+        <v>-0.07610017172936953</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>2.7826360685514224</v>
+        <v>1.0315839715350066</v>
       </c>
       <c r="H9" t="n">
-        <v>0.19145361779301426</v>
+        <v>0.07097603802371366</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6559370397755736</v>
+        <v>0.2431701882312094</v>
       </c>
       <c r="J9" t="s">
         <v>5</v>
@@ -1347,46 +1347,46 @@
         <v>0.0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.012086545188807482</v>
+        <v>0.01056770730135666</v>
       </c>
       <c r="P9" t="n">
-        <v>0.09478197849740819</v>
+        <v>0.04477923137957541</v>
       </c>
       <c r="Q9" t="s">
         <v>5</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7845257812784427</v>
+        <v>0.5866130319920685</v>
       </c>
       <c r="S9" t="n">
-        <v>0.10438470632442101</v>
+        <v>0.0531418352644902</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.17644940906012002</v>
+        <v>-0.1515472397652733</v>
       </c>
       <c r="U9" t="s">
         <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>0.19122787402368202</v>
+        <v>0.07096453441949072</v>
       </c>
       <c r="W9" t="n">
-        <v>0.009294512489441442</v>
+        <v>0.0012778216497479576</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.18207870355701014</v>
+        <v>-0.06732343952670848</v>
       </c>
       <c r="Y9" t="s">
         <v>5</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.0011750201906281488</v>
+        <v>5.855500407695244E-4</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.012029293501810548</v>
+        <v>0.010551472350193677</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.09817729601467391</v>
+        <v>0.04774715607483813</v>
       </c>
       <c r="AC9" t="s">
         <v>5</v>
@@ -1395,19 +1395,19 @@
         <v>5</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.07827211304544611</v>
+        <v>-0.10380008369043517</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.26035081660245624</v>
+        <v>-0.17112352321714366</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.4473767837895992</v>
+        <v>0.8321853866414081</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.08152921595969675</v>
+        <v>-0.1093959750617083</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.27298283375271104</v>
+        <v>-0.18037201308542195</v>
       </c>
       <c r="AJ9" t="n">
         <v>0.0</v>
@@ -1419,45 +1419,45 @@
         <v>5</v>
       </c>
       <c r="AM9" t="n">
-        <v>-5.964046072181445</v>
+        <v>-3.9135100683287645</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.7742467093362136</v>
+        <v>0.5659455690667888</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.03419451909203599</v>
+        <v>0.034002026777854605</v>
       </c>
       <c r="AP9" t="n">
-        <v>22.6424213556651</v>
+        <v>16.644465718596138</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.94736842105263</v>
+        <v>6.205399999999998</v>
       </c>
       <c r="B10" t="n">
-        <v>6.94736842105263</v>
+        <v>4.205399999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9055331178492062</v>
+        <v>0.6757206828101454</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.07735907156552081</v>
+        <v>-0.0764437055013262</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>3.8049236026433944</v>
+        <v>1.7756099837873354</v>
       </c>
       <c r="H10" t="n">
-        <v>0.26179003333746426</v>
+        <v>0.12216723524411494</v>
       </c>
       <c r="I10" t="n">
-        <v>0.896915824780986</v>
+        <v>0.4185557607494571</v>
       </c>
       <c r="J10" t="s">
         <v>5</v>
@@ -1473,46 +1473,46 @@
         <v>0.0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.013440572580456587</v>
+        <v>0.011093921273441635</v>
       </c>
       <c r="P10" t="n">
-        <v>0.12326149518414423</v>
+        <v>0.06619577315969957</v>
       </c>
       <c r="Q10" t="s">
         <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8945142500975707</v>
+        <v>0.6717614872504488</v>
       </c>
       <c r="S10" t="n">
-        <v>0.14083495267186028</v>
+        <v>0.07304071073363241</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.18997555305078828</v>
+        <v>-0.16234671998970582</v>
       </c>
       <c r="U10" t="s">
         <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>0.2612129877581734</v>
+        <v>0.12210857553791546</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01737229349507429</v>
+        <v>0.0037853860162620333</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.2492451327831192</v>
+        <v>-0.11602295692324352</v>
       </c>
       <c r="Y10" t="s">
         <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0016257386605158133</v>
+        <v>8.13541559057749E-4</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.013341887613760869</v>
+        <v>0.011064051669845308</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.12703474005113197</v>
+        <v>0.06931248130750196</v>
       </c>
       <c r="AC10" t="s">
         <v>5</v>
@@ -1521,19 +1521,19 @@
         <v>5</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.06294081299965631</v>
+        <v>-0.09303423868220385</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.31218594578277553</v>
+        <v>-0.2090571956054474</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.8024489426301922</v>
+        <v>1.0942764435596026</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.06479903435189154</v>
+        <v>-0.09764229454735883</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.3265890676893558</v>
+        <v>-0.21980952979147378</v>
       </c>
       <c r="AJ10" t="n">
         <v>0.0</v>
@@ -1545,45 +1545,45 @@
         <v>5</v>
       </c>
       <c r="AM10" t="n">
-        <v>-7.172611561177995</v>
+        <v>-4.773052689066006</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.891868175391627</v>
+        <v>0.6551296917597254</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.03432964734673439</v>
+        <v>0.034077117211424555</v>
       </c>
       <c r="AP10" t="n">
-        <v>25.97953210481977</v>
+        <v>19.224915291252668</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.315789473684209</v>
+        <v>7.234449999999998</v>
       </c>
       <c r="B11" t="n">
-        <v>8.315789473684209</v>
+        <v>5.234449999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0152056541887151</v>
+        <v>0.7624261515943125</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.07781589892483359</v>
+        <v>-0.07678723879701524</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>4.8529067509929025</v>
+        <v>2.5285479255626546</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3338943833835252</v>
+        <v>0.17397159965801884</v>
       </c>
       <c r="I11" t="n">
-        <v>1.1439517098656329</v>
+        <v>0.5960420983429746</v>
       </c>
       <c r="J11" t="s">
         <v>5</v>
@@ -1599,46 +1599,46 @@
         <v>0.0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.015196956525615538</v>
+        <v>0.011804592557616355</v>
       </c>
       <c r="P11" t="n">
-        <v>0.15174101187088024</v>
+        <v>0.08761231493982374</v>
       </c>
       <c r="Q11" t="s">
         <v>5</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9987955923999986</v>
+        <v>0.7563566015675038</v>
       </c>
       <c r="S11" t="n">
-        <v>0.18179627306155877</v>
+        <v>0.09601212371450739</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.20256325606000125</v>
+        <v>-0.17294807775555615</v>
       </c>
       <c r="U11" t="s">
         <v>5</v>
       </c>
       <c r="V11" t="n">
-        <v>0.33269742763090554</v>
+        <v>0.17380221464230597</v>
       </c>
       <c r="W11" t="n">
-        <v>0.028246785708162796</v>
+        <v>0.007675133419021979</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.31814795976899674</v>
+        <v>-0.1653992861841421</v>
       </c>
       <c r="Y11" t="s">
         <v>5</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0021979189134630045</v>
+        <v>0.0010769489758520447</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.015037175269687132</v>
+        <v>0.011755364152366471</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.15600214119101682</v>
+        <v>0.0909286691002487</v>
       </c>
       <c r="AC11" t="s">
         <v>5</v>
@@ -1647,19 +1647,19 @@
         <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.04656111486898443</v>
+        <v>-0.08201940865530745</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.3647090746379811</v>
+        <v>-0.2474186948394495</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.159157364054348</v>
+        <v>1.358468249937287</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0.046936271388269855</v>
+        <v>-0.08561926975307553</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0.380830654771795</v>
+        <v>-0.2595908694110944</v>
       </c>
       <c r="AJ11" t="n">
         <v>0.0</v>
@@ -1671,45 +1671,45 @@
         <v>5</v>
       </c>
       <c r="AM11" t="n">
-        <v>-8.401247174301204</v>
+        <v>-5.662121002192778</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.0053076448416776</v>
+        <v>0.7443705986661294</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.03447804478451893</v>
+        <v>0.034163234748964356</v>
       </c>
       <c r="AP11" t="n">
-        <v>29.157907622797484</v>
+        <v>21.78864513667561</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11.684210526315788</v>
+        <v>8.263499999999997</v>
       </c>
       <c r="B12" t="n">
-        <v>9.684210526315788</v>
+        <v>6.263499999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>1.1170832178597425</v>
+        <v>0.8488539826686329</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.07827272628414653</v>
+        <v>-0.07713077209270432</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>5.94138250761271</v>
+        <v>3.2907779638911983</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4087847450229957</v>
+        <v>0.22641528788508777</v>
       </c>
       <c r="I12" t="n">
-        <v>1.4005327172541957</v>
+        <v>0.7757188159058008</v>
       </c>
       <c r="J12" t="s">
         <v>5</v>
@@ -1725,46 +1725,46 @@
         <v>0.0</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01739343165909457</v>
+        <v>0.012715965252186033</v>
       </c>
       <c r="P12" t="n">
-        <v>0.18022052855761625</v>
+        <v>0.10902885671994789</v>
       </c>
       <c r="Q12" t="s">
         <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.0939357535853529</v>
+        <v>0.840040798378604</v>
       </c>
       <c r="S12" t="n">
-        <v>0.22622882807353037</v>
+        <v>0.12200221699558292</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.21380047578973554</v>
+        <v>-0.18330619656575514</v>
       </c>
       <c r="U12" t="s">
         <v>5</v>
       </c>
       <c r="V12" t="n">
-        <v>0.40658888199003534</v>
+        <v>0.22604194467403738</v>
       </c>
       <c r="W12" t="n">
-        <v>0.042313695248804635</v>
+        <v>0.012996993347178047</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.3896914797800928</v>
+        <v>-0.215454825661924</v>
       </c>
       <c r="Y12" t="s">
         <v>5</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0029258836720285042</v>
+        <v>0.001387325680027706</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01714557288682272</v>
+        <v>0.012640059325507071</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.18508880807897404</v>
+        <v>0.11260008793246273</v>
       </c>
       <c r="AC12" t="s">
         <v>5</v>
@@ -1773,19 +1773,19 @@
         <v>5</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.0287116677107615</v>
+        <v>-0.07070610863329241</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.41840314749085433</v>
+        <v>-0.28616093429521644</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.5176159351139384</v>
+        <v>1.6245727985744338</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0.02748835896351971</v>
+        <v>-0.07327192555844984</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.4362731039865154</v>
+        <v>-0.2996872134435376</v>
       </c>
       <c r="AJ12" t="n">
         <v>0.0</v>
@@ -1797,45 +1797,45 @@
         <v>5</v>
       </c>
       <c r="AM12" t="n">
-        <v>-9.766739759471509</v>
+        <v>-6.566102760915387</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.1112864209283262</v>
+        <v>0.8334022609489091</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.03463271657353427</v>
+        <v>0.03426009455570587</v>
       </c>
       <c r="AP12" t="n">
-        <v>32.08776356220211</v>
+        <v>24.325743164363498</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13.052631578947366</v>
+        <v>9.292549999999997</v>
       </c>
       <c r="B13" t="n">
-        <v>11.052631578947366</v>
+        <v>7.2925499999999985</v>
       </c>
       <c r="C13" t="n">
-        <v>1.207861526749957</v>
+        <v>0.9337487598838506</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.07872955364345902</v>
+        <v>-0.07747430538839337</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>7.076104631378431</v>
+        <v>4.066532542862461</v>
       </c>
       <c r="H13" t="n">
-        <v>0.486856993938325</v>
+        <v>0.2797895046366379</v>
       </c>
       <c r="I13" t="n">
-        <v>1.6680151520729927</v>
+        <v>0.958583606552912</v>
       </c>
       <c r="J13" t="s">
         <v>5</v>
@@ -1851,46 +1851,46 @@
         <v>0.0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.020067694344128646</v>
+        <v>0.013844183896903877</v>
       </c>
       <c r="P13" t="n">
-        <v>0.20870004524435226</v>
+        <v>0.13044539850007206</v>
       </c>
       <c r="Q13" t="s">
         <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>1.176654026545684</v>
+        <v>0.9214949143258129</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2727907066169341</v>
+        <v>0.15077754957649234</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.22330773841160834</v>
+        <v>-0.19325604478030195</v>
       </c>
       <c r="U13" t="s">
         <v>5</v>
       </c>
       <c r="V13" t="n">
-        <v>0.483148798925917</v>
+        <v>0.2790850997708543</v>
       </c>
       <c r="W13" t="n">
-        <v>0.05997475004621568</v>
+        <v>0.019841219486400493</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.4641689597337831</v>
+        <v>-0.2664434721983415</v>
       </c>
       <c r="Y13" t="s">
         <v>5</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0038471903639653335</v>
+        <v>0.0017573202662554271</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01969546858017816</v>
+        <v>0.013732197684751722</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.21430355608065527</v>
+        <v>0.1343309666279953</v>
       </c>
       <c r="AC13" t="s">
         <v>5</v>
@@ -1899,19 +1899,19 @@
         <v>5</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.00900418233095307</v>
+        <v>-0.05892507815230666</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.4731731420647362</v>
+        <v>-0.32536855035064816</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.8758766788229497</v>
+        <v>1.8923323664367626</v>
       </c>
       <c r="AH13" t="n">
-        <v>-0.006037607184473734</v>
+        <v>-0.060418397554167225</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.4928946011227987</v>
+        <v>-0.3402079021908051</v>
       </c>
       <c r="AJ13" t="n">
         <v>0.0</v>
@@ -1923,45 +1923,45 @@
         <v>5</v>
       </c>
       <c r="AM13" t="n">
-        <v>-11.161271126608664</v>
+        <v>-7.479651473704955</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.2065883047709185</v>
+        <v>0.9210076143681113</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.03478503276792888</v>
+        <v>0.034366072708199975</v>
       </c>
       <c r="AP13" t="n">
-        <v>34.686996353310015</v>
+        <v>26.79990879924876</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14.421052631578945</v>
+        <v>10.321599999999997</v>
       </c>
       <c r="B14" t="n">
-        <v>12.421052631578945</v>
+        <v>8.321599999999997</v>
       </c>
       <c r="C14" t="n">
-        <v>1.2843061518075047</v>
+        <v>1.0156570840903227</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.07918638100277194</v>
+        <v>-0.07781783868408246</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>8.272315848171484</v>
+        <v>4.8574714248340936</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5691598748963929</v>
+        <v>0.334208446487507</v>
       </c>
       <c r="I14" t="n">
-        <v>1.9499921067158748</v>
+        <v>1.145027717857037</v>
       </c>
       <c r="J14" t="s">
         <v>5</v>
@@ -1977,46 +1977,46 @@
         <v>0.0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02325749609435556</v>
+        <v>0.015205326040838648</v>
       </c>
       <c r="P14" t="n">
-        <v>0.23717956193108827</v>
+        <v>0.15186194028019617</v>
       </c>
       <c r="Q14" t="s">
         <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.2438398710126486</v>
+        <v>0.9992212754568881</v>
       </c>
       <c r="S14" t="n">
-        <v>0.3198510072671947</v>
+        <v>0.18197844690283152</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.23073983189761194</v>
+        <v>-0.2026141063239723</v>
       </c>
       <c r="U14" t="s">
         <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5632380074538792</v>
+        <v>0.3330081113158983</v>
       </c>
       <c r="W14" t="n">
-        <v>0.08188962175673747</v>
+        <v>0.0282998851837096</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.5424703819576887</v>
+        <v>-0.31844808534102664</v>
       </c>
       <c r="Y14" t="s">
         <v>5</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.0050025520260394574</v>
+        <v>0.0022006551779593345</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.022713115105721028</v>
+        <v>0.015045233690306267</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.24365467548154676</v>
+        <v>0.15612538910147492</v>
       </c>
       <c r="AC14" t="s">
         <v>5</v>
@@ -2025,19 +2025,19 @@
         <v>5</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.012914843583934826</v>
+        <v>-0.046488717222497394</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.5295555383737539</v>
+        <v>-0.364936802563524</v>
       </c>
       <c r="AG14" t="n">
-        <v>3.2342982585233795</v>
+        <v>2.16068480194736</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.017796956157573745</v>
+        <v>-0.04685735184041207</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.5513629187388192</v>
+        <v>-0.3810657983279191</v>
       </c>
       <c r="AJ14" t="n">
         <v>0.0</v>
@@ -2049,45 +2049,45 @@
         <v>5</v>
       </c>
       <c r="AM14" t="n">
-        <v>-12.901638468427464</v>
+        <v>-8.407038527080271</v>
       </c>
       <c r="AN14" t="n">
-        <v>1.2880592074547947</v>
+        <v>1.0057757174462365</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.03492517413598163</v>
+        <v>0.03447869386407652</v>
       </c>
       <c r="AP14" t="n">
-        <v>36.88053787333226</v>
+        <v>29.170934415649597</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15.789473684210524</v>
+        <v>11.350649999999996</v>
       </c>
       <c r="B15" t="n">
-        <v>13.789473684210524</v>
+        <v>9.350649999999998</v>
       </c>
       <c r="C15" t="n">
-        <v>1.3432525170410106</v>
+        <v>1.093147894553593</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.07964320836208452</v>
+        <v>-0.07816137197977152</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>9.544148985256683</v>
+        <v>5.6718580454938685</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6566657683461098</v>
+        <v>0.3902406623312081</v>
       </c>
       <c r="I15" t="n">
-        <v>2.2497950426644606</v>
+        <v>1.3369990486485952</v>
       </c>
       <c r="J15" t="s">
         <v>5</v>
@@ -2103,46 +2103,46 @@
         <v>0.0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.027000720776205345</v>
+        <v>0.016815431495468332</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2656590786178243</v>
+        <v>0.17327848206032037</v>
       </c>
       <c r="Q15" t="s">
         <v>5</v>
       </c>
       <c r="R15" t="n">
-        <v>1.2925689134834206</v>
+        <v>1.0717670774125032</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3655036640490763</v>
+        <v>0.21514565099395952</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.23578736067726297</v>
+        <v>-0.21120684990364166</v>
       </c>
       <c r="U15" t="s">
         <v>5</v>
       </c>
       <c r="V15" t="n">
-        <v>0.6475762875382982</v>
+        <v>0.3883301348925055</v>
       </c>
       <c r="W15" t="n">
-        <v>0.10888013196034478</v>
+        <v>0.038567873561662934</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.625370701114755</v>
+        <v>-0.37198229045826287</v>
       </c>
       <c r="Y15" t="s">
         <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.006435757822936014</v>
+        <v>0.0027321065269740497</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.026222508340719902</v>
+        <v>0.016591995971071537</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.27314989562732134</v>
+        <v>0.17798728834972913</v>
       </c>
       <c r="AC15" t="s">
         <v>5</v>
@@ -2151,19 +2151,19 @@
         <v>5</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.03736253495005837</v>
+        <v>-0.033219561553912536</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.5880081661646968</v>
+        <v>-0.4052018520121754</v>
       </c>
       <c r="AG15" t="n">
-        <v>3.593047559705471</v>
+        <v>2.430146943202188</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.04435788876325046</v>
+        <v>-0.032398142276210275</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.6123078795828594</v>
+        <v>-0.4226388046074184</v>
       </c>
       <c r="AJ15" t="n">
         <v>0.0</v>
@@ -2175,45 +2175,45 @@
         <v>5</v>
       </c>
       <c r="AM15" t="n">
-        <v>-14.885019527593684</v>
+        <v>-9.430940476253586</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.352606792201931</v>
+        <v>1.0863157132662502</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.035042703965184475</v>
+        <v>0.034594878017620775</v>
       </c>
       <c r="AP15" t="n">
-        <v>38.59881342335252</v>
+        <v>31.40105632726727</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17.157894736842103</v>
+        <v>12.379699999999996</v>
       </c>
       <c r="B16" t="n">
-        <v>15.157894736842103</v>
+        <v>10.379699999999996</v>
       </c>
       <c r="C16" t="n">
-        <v>1.3816058995195761</v>
+        <v>1.1648124689543904</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.08010003572139777</v>
+        <v>-0.07850490527546072</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>10.893902252526637</v>
+        <v>6.509908497292987</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7495327979470374</v>
+        <v>0.4479010199695452</v>
       </c>
       <c r="I16" t="n">
-        <v>2.56796570557165</v>
+        <v>1.5345485373324899</v>
       </c>
       <c r="J16" t="s">
         <v>5</v>
@@ -2229,46 +2229,46 @@
         <v>0.0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.03133544664443383</v>
+        <v>0.018690528369395186</v>
       </c>
       <c r="P16" t="n">
-        <v>0.29413859530456027</v>
+        <v>0.19469502384044451</v>
       </c>
       <c r="Q16" t="s">
         <v>5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.320118099220939</v>
+        <v>1.1377285967185655</v>
       </c>
       <c r="S16" t="n">
-        <v>0.40758197420468983</v>
+        <v>0.2497233029583474</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.23817815957639543</v>
+        <v>-0.21887116489650466</v>
       </c>
       <c r="U16" t="s">
         <v>5</v>
       </c>
       <c r="V16" t="n">
-        <v>0.7360253412964952</v>
+        <v>0.4450130724026162</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1416549052016629</v>
+        <v>0.05078079440637717</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.7128198639817714</v>
+        <v>-0.427025488629856</v>
       </c>
       <c r="Y16" t="s">
         <v>5</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.008193590738348126</v>
+        <v>0.003367484696509963</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.030245252308727977</v>
+        <v>0.01838466473846987</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.30279634523143334</v>
+        <v>0.19992043968003986</v>
       </c>
       <c r="AC16" t="s">
         <v>5</v>
@@ -2277,19 +2277,19 @@
         <v>5</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.06461818565503791</v>
+        <v>-0.018950725216464792</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.6482016783267335</v>
+        <v>-0.44597621384632075</v>
       </c>
       <c r="AG16" t="n">
-        <v>3.949571605091226</v>
+        <v>2.69936100628688</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.07394778194220815</v>
+        <v>-0.016861282316211906</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.6755850160048292</v>
+        <v>-0.4647623022857571</v>
       </c>
       <c r="AJ16" t="n">
         <v>0.0</v>
@@ -2301,45 +2301,45 @@
         <v>5</v>
       </c>
       <c r="AM16" t="n">
-        <v>-23.215913470442715</v>
+        <v>-10.468400483087812</v>
       </c>
       <c r="AN16" t="n">
-        <v>1.3972001471069462</v>
+        <v>1.1612567299697505</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.035127256568849734</v>
+        <v>0.0347110196469657</v>
       </c>
       <c r="AP16" t="n">
-        <v>39.775384803206066</v>
+        <v>33.45498754518042</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>18.52631578947368</v>
+        <v>13.408749999999996</v>
       </c>
       <c r="B17" t="n">
-        <v>16.526315789473685</v>
+        <v>11.408749999999998</v>
       </c>
       <c r="C17" t="n">
-        <v>1.3963414293727818</v>
+        <v>1.2292644233886303</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0805568630807101</v>
+        <v>-0.07884843857114957</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>12.350141322657315</v>
+        <v>7.381169226939118</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8497686492403669</v>
+        <v>0.5078463432609839</v>
       </c>
       <c r="I17" t="n">
-        <v>2.9113826037982142</v>
+        <v>1.7399265205821264</v>
       </c>
       <c r="J17" t="s">
         <v>5</v>
@@ -2355,46 +2355,46 @@
         <v>0.0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.036299994346560185</v>
+        <v>0.02084665599731792</v>
       </c>
       <c r="P17" t="n">
-        <v>0.32261811199129636</v>
+        <v>0.2161115656205687</v>
       </c>
       <c r="Q17" t="s">
         <v>5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.323979969760846</v>
+        <v>1.1957552593305172</v>
       </c>
       <c r="S17" t="n">
-        <v>0.44367378450263684</v>
+        <v>0.28506206761403613</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.2376785652889808</v>
+        <v>-0.22545477257566646</v>
       </c>
       <c r="U17" t="s">
         <v>5</v>
       </c>
       <c r="V17" t="n">
-        <v>0.8301039581529361</v>
+        <v>0.5036380433834922</v>
       </c>
       <c r="W17" t="n">
-        <v>0.18175306294702728</v>
+        <v>0.06524285110570148</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.8064308203010079</v>
+        <v>-0.484162393805217</v>
       </c>
       <c r="Y17" t="s">
         <v>5</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.010325740226475186</v>
+        <v>0.004123615347367727</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.03480041204261314</v>
+        <v>0.020434746456402746</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.3326005091610708</v>
+        <v>0.2219284531794224</v>
       </c>
       <c r="AC17" t="s">
         <v>5</v>
@@ -2403,19 +2403,19 @@
         <v>5</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.09492194387209002</v>
+        <v>-0.0035263193962440653</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.7115088764289177</v>
+        <v>-0.48768871320146107</v>
       </c>
       <c r="AG17" t="n">
-        <v>4.307724033170996</v>
+        <v>2.969190943970757</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.10682785574958878</v>
+        <v>-7.889149540778448E-5</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.7429407934907781</v>
+        <v>-0.5079252347563916</v>
       </c>
       <c r="AJ17" t="n">
         <v>0.0</v>
@@ -2427,45 +2427,45 @@
         <v>5</v>
       </c>
       <c r="AM17" t="n">
-        <v>-25.0</v>
+        <v>-11.531460738860375</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.4188694888768367</v>
+        <v>1.2292477866014324</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.03516933346965916</v>
+        <v>0.03482309135581882</v>
       </c>
       <c r="AP17" t="n">
-        <v>40.34394027117135</v>
+        <v>35.29978927031788</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>19.89473684210526</v>
+        <v>14.437799999999996</v>
       </c>
       <c r="B18" t="n">
-        <v>17.89473684210526</v>
+        <v>12.437799999999996</v>
       </c>
       <c r="C18" t="n">
-        <v>1.3845040897906862</v>
+        <v>1.285139712367413</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.08101369044002289</v>
+        <v>-0.07919197186683846</v>
       </c>
       <c r="F18" t="s">
         <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>13.905685606182825</v>
+        <v>8.287070953683713</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9568617361453401</v>
+        <v>0.5701750699350687</v>
       </c>
       <c r="I18" t="n">
-        <v>3.278292998151909</v>
+        <v>1.9534702547714724</v>
       </c>
       <c r="J18" t="s">
         <v>5</v>
@@ -2481,46 +2481,46 @@
         <v>0.0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.04193296208966164</v>
+        <v>0.023299884889942626</v>
       </c>
       <c r="P18" t="n">
-        <v>0.3510976286780323</v>
+        <v>0.23752810740069283</v>
       </c>
       <c r="Q18" t="s">
         <v>5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.301876041325309</v>
+        <v>1.2445535622631911</v>
       </c>
       <c r="S18" t="n">
-        <v>0.4711372917423101</v>
+        <v>0.3204223946009364</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.23409454393041174</v>
+        <v>-0.23081661235011108</v>
       </c>
       <c r="U18" t="s">
         <v>5</v>
       </c>
       <c r="V18" t="n">
-        <v>0.9288186432028673</v>
+        <v>0.5642214948540953</v>
       </c>
       <c r="W18" t="n">
-        <v>0.22995719196811212</v>
+        <v>0.08218099001636932</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.9053527829742233</v>
+        <v>-0.543434444166242</v>
       </c>
       <c r="Y18" t="s">
         <v>5</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.012884707865020967</v>
+        <v>0.0050183204641755675</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.039904355812944374</v>
+        <v>0.02275304585332288</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.36256818208390573</v>
+        <v>0.24401476544061879</v>
       </c>
       <c r="AC18" t="s">
         <v>5</v>
@@ -2529,19 +2529,19 @@
         <v>5</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.128473638153494</v>
+        <v>0.013198153090507703</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.7768791448207293</v>
+        <v>-0.5302362910757343</v>
       </c>
       <c r="AG18" t="n">
-        <v>4.662797087942595</v>
+        <v>3.2386099671388857</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.14321670299257447</v>
+        <v>0.018104883780341776</v>
       </c>
       <c r="AI18" t="n">
-        <v>-0.8136450331527656</v>
+        <v>-0.5520701861547269</v>
       </c>
       <c r="AJ18" t="n">
         <v>0.0</v>
@@ -2553,45 +2553,45 @@
         <v>5</v>
       </c>
       <c r="AM18" t="n">
-        <v>-25.0</v>
+        <v>-12.924655642891928</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.4147058979647091</v>
+        <v>1.2889577043719855</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.03516119847151163</v>
+        <v>0.034926770707931785</v>
       </c>
       <c r="AP18" t="n">
-        <v>40.23486000088804</v>
+        <v>36.90457715517531</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>21.26315789473684</v>
+        <v>15.466849999999996</v>
       </c>
       <c r="B19" t="n">
-        <v>19.263157894736842</v>
+        <v>13.466849999999997</v>
       </c>
       <c r="C19" t="n">
-        <v>1.3432087170238252</v>
+        <v>1.3310966288170252</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.08147051779933567</v>
+        <v>-0.07953550516252773</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>15.570283831597699</v>
+        <v>9.23506042298651</v>
       </c>
       <c r="H19" t="n">
-        <v>1.0705215560140706</v>
+        <v>0.6353995581744463</v>
       </c>
       <c r="I19" t="n">
-        <v>3.6677016008492056</v>
+        <v>2.176935124382179</v>
       </c>
       <c r="J19" t="s">
         <v>5</v>
@@ -2607,46 +2607,46 @@
         <v>0.0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.048273249196999705</v>
+        <v>0.0260663338434083</v>
       </c>
       <c r="P19" t="n">
-        <v>0.3795771453647684</v>
+        <v>0.258944649180817</v>
       </c>
       <c r="Q19" t="s">
         <v>5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.2517692615397948</v>
+        <v>1.2828908443335023</v>
       </c>
       <c r="S19" t="n">
-        <v>0.4871174122867167</v>
+        <v>0.3549779102610799</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.2272726735180625</v>
+        <v>-0.23482720272616892</v>
       </c>
       <c r="U19" t="s">
         <v>5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.0312354608511514</v>
+        <v>0.6271636652808458</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2873496583848681</v>
+        <v>0.10197222896346199</v>
       </c>
       <c r="X19" t="n">
-        <v>-1.0088278408285853</v>
+        <v>-0.6052634452727353</v>
       </c>
       <c r="Y19" t="s">
         <v>5</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.015925704317733755</v>
+        <v>0.006070399098265792</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.04557058843179172</v>
+        <v>0.02534963539824166</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.39270441941541684</v>
+        <v>0.26618263057099373</v>
       </c>
       <c r="AC19" t="s">
         <v>5</v>
@@ -2655,19 +2655,19 @@
         <v>5</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.16543174589735435</v>
+        <v>0.03135542784482481</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.8433960949312311</v>
+        <v>-0.5739080174279105</v>
       </c>
       <c r="AG19" t="n">
-        <v>5.010910317873031</v>
+        <v>3.5080317531992042</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.1832891837155665</v>
+        <v>0.03783347546009742</v>
       </c>
       <c r="AI19" t="n">
-        <v>-0.8872323722985042</v>
+        <v>-0.5975660827143489</v>
       </c>
       <c r="AJ19" t="n">
         <v>0.0</v>
@@ -2679,45 +2679,45 @@
         <v>5</v>
       </c>
       <c r="AM19" t="n">
-        <v>-25.0</v>
+        <v>-14.405265331641342</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.3818610854367315</v>
+        <v>1.3390750234073665</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.035097863052463436</v>
+        <v>0.035017588980117316</v>
       </c>
       <c r="AP19" t="n">
-        <v>39.371658706718385</v>
+        <v>38.24006913119238</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>22.631578947368418</v>
+        <v>16.495899999999992</v>
       </c>
       <c r="B20" t="n">
-        <v>20.631578947368418</v>
+        <v>14.495899999999995</v>
       </c>
       <c r="C20" t="n">
-        <v>1.2696400003832122</v>
+        <v>1.365815804078939</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.08192734515864829</v>
+        <v>-0.07987903845821703</v>
       </c>
       <c r="F20" t="s">
         <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>17.360579651878474</v>
+        <v>10.230379971447693</v>
       </c>
       <c r="H20" t="n">
-        <v>1.1890465879889764</v>
+        <v>0.7038804962915902</v>
       </c>
       <c r="I20" t="n">
-        <v>4.073778850833467</v>
+        <v>2.4115568794966578</v>
       </c>
       <c r="J20" t="s">
         <v>5</v>
@@ -2733,46 +2733,46 @@
         <v>0.0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.05536006929417667</v>
+        <v>0.029162184356603327</v>
       </c>
       <c r="P20" t="n">
-        <v>0.4080566620515043</v>
+        <v>0.28036119096094114</v>
       </c>
       <c r="Q20" t="s">
         <v>5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.171875523869601</v>
+        <v>1.3095989022396732</v>
       </c>
       <c r="S20" t="n">
-        <v>0.4885626747188446</v>
+        <v>0.3878189344583906</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.21710098052233134</v>
+        <v>-0.23736897672784976</v>
       </c>
       <c r="U20" t="s">
         <v>5</v>
       </c>
       <c r="V20" t="n">
-        <v>1.134880577984941</v>
+        <v>0.6926899042293819</v>
       </c>
       <c r="W20" t="n">
-        <v>0.35479270302641946</v>
+        <v>0.12501379779202418</v>
       </c>
       <c r="X20" t="n">
-        <v>-1.1146201219037744</v>
+        <v>-0.669907984437187</v>
       </c>
       <c r="Y20" t="s">
         <v>5</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.01950653618847535</v>
+        <v>0.007299607486172744</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.051809577475441196</v>
+        <v>0.028233822394361178</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.42301348605023775</v>
+        <v>0.28843511051995585</v>
       </c>
       <c r="AC20" t="s">
         <v>5</v>
@@ -2781,19 +2781,19 @@
         <v>5</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.2059125055279064</v>
+        <v>0.05106613379210609</v>
       </c>
       <c r="AF20" t="n">
-        <v>-0.908707616375868</v>
+        <v>-0.6188418506450809</v>
       </c>
       <c r="AG20" t="n">
-        <v>5.343418851216679</v>
+        <v>3.7773726835755967</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.22717547151645662</v>
+        <v>0.05923752539097756</v>
       </c>
       <c r="AI20" t="n">
-        <v>-0.9618711164725198</v>
+        <v>-0.6446429709006126</v>
       </c>
       <c r="AJ20" t="n">
         <v>0.0</v>
@@ -2805,45 +2805,45 @@
         <v>5</v>
       </c>
       <c r="AM20" t="n">
-        <v>-25.0</v>
+        <v>-17.734046837896074</v>
       </c>
       <c r="AN20" t="n">
-        <v>1.3175471918575123</v>
+        <v>1.3783079250479218</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.034978153718939156</v>
+        <v>0.03509110058603006</v>
       </c>
       <c r="AP20" t="n">
-        <v>37.667716896793145</v>
+        <v>39.27799077343938</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>23.999999999999996</v>
+        <v>17.524949999999993</v>
       </c>
       <c r="B21" t="n">
-        <v>22.0</v>
+        <v>15.524949999999997</v>
       </c>
       <c r="C21" t="n">
-        <v>1.161052482240341</v>
+        <v>1.3880002079098135</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.08238417251796103</v>
+        <v>-0.08022257175390589</v>
       </c>
       <c r="F21" t="s">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>19.23777244028694</v>
+        <v>11.274427679875984</v>
       </c>
       <c r="H21" t="n">
-        <v>1.3042570269011642</v>
+        <v>0.7757148697373356</v>
       </c>
       <c r="I21" t="n">
-        <v>4.468500011616162</v>
+        <v>2.6576678008534786</v>
       </c>
       <c r="J21" t="s">
         <v>5</v>
@@ -2859,46 +2859,46 @@
         <v>0.0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.06323295435699017</v>
+        <v>0.032603692512529064</v>
       </c>
       <c r="P21" t="n">
-        <v>0.4365361787382404</v>
+        <v>0.30177773274106534</v>
       </c>
       <c r="Q21" t="s">
         <v>5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.0606742212353302</v>
+        <v>1.3235774483996714</v>
       </c>
       <c r="S21" t="n">
-        <v>0.4722425890612614</v>
+        <v>0.41795611641116176</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.20350962992819155</v>
+        <v>-0.23833659154372866</v>
       </c>
       <c r="U21" t="s">
         <v>5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.2314264779186952</v>
+        <v>0.7607451364283053</v>
       </c>
       <c r="W21" t="n">
-        <v>0.42973855040224357</v>
+        <v>0.1516588162036439</v>
       </c>
       <c r="X21" t="n">
-        <v>-1.2145712747671935</v>
+        <v>-0.7373562301314196</v>
       </c>
       <c r="Y21" t="s">
         <v>5</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.023687481623295936</v>
+        <v>0.008726638247146173</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.05862857435635988</v>
+        <v>0.031414113871872776</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.4534988033916417</v>
+        <v>0.31077506476889327</v>
       </c>
       <c r="AC21" t="s">
         <v>5</v>
@@ -2907,19 +2907,19 @@
         <v>5</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.24998917346345018</v>
+        <v>0.07243847322516461</v>
       </c>
       <c r="AF21" t="n">
-        <v>-0.9645821013037433</v>
+        <v>-0.664917756906255</v>
       </c>
       <c r="AG21" t="n">
-        <v>5.629552493856503</v>
+        <v>4.045668008763292</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.27496025277742175</v>
+        <v>0.08243454345746618</v>
       </c>
       <c r="AI21" t="n">
-        <v>-1.0292967741237424</v>
+        <v>-0.6932803262798695</v>
       </c>
       <c r="AJ21" t="n">
         <v>0.0</v>
@@ -2931,16 +2931,142 @@
         <v>5</v>
       </c>
       <c r="AM21" t="n">
+        <v>-24.985773832867828</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1.405384159756161</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.03514307194817555</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>39.990361736977334</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>18.55399999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>16.553999999999995</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.396375148481492</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.08056610504959487</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>12.376346739394979</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8515735314108819</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.917566289861286</v>
+      </c>
+      <c r="J22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.03640719848571143</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.32319427452118943</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.3237974071728464</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.44432418351824826</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-0.2376372121984519</v>
+      </c>
+      <c r="U22" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.8317836810190673</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.18251955344557136</v>
+      </c>
+      <c r="X22" t="n">
+        <v>-0.8081079466983095</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.010373098389069229</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.03489817948530665</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.3332051394348852</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.09556792723643331</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>-0.7125400194618763</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>4.313941438342778</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.1075285925723896</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>-0.7440449388384923</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM22" t="n">
         <v>-25.0</v>
       </c>
-      <c r="AN21" t="n">
-        <v>1.2190366184223833</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0.03480585315521591</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>35.023897072314746</v>
+      <c r="AN22" t="n">
+        <v>1.4190509806870577</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.03516968861971549</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>40.34869333166525</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/CS300/Aerdoynamic Comparison Results.xlsx
+++ b/JPADSandBox_v2/out/CS300/Aerdoynamic Comparison Results.xlsx
@@ -431,7 +431,7 @@
         <v>-4.026999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.017923192389428078</v>
+        <v>-0.02159222036650474</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -443,13 +443,13 @@
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.9417123547792148</v>
+        <v>-3.9280203589749405</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.27120150534624476</v>
+        <v>-0.27025945540979734</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.9291603608755942</v>
+        <v>-0.9259328144141732</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
@@ -465,7 +465,7 @@
         <v>0.0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.010645387928411134</v>
+        <v>0.010645712683778785</v>
       </c>
       <c r="P2" t="n">
         <v>-0.10513656108129371</v>
@@ -474,37 +474,37 @@
         <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.017911977311220788</v>
+        <v>-0.021578709467619212</v>
       </c>
       <c r="S2" t="n">
-        <v>6.339512842201047E-4</v>
+        <v>7.637264351736376E-4</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.07129995131215994</v>
+        <v>-0.0690195804261403</v>
       </c>
       <c r="U2" t="s">
         <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.270559977669393</v>
+        <v>-0.2696245880638797</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01864282665281216</v>
+        <v>0.018513636859985798</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2540187751941785</v>
+        <v>0.2531478866456735</v>
       </c>
       <c r="Y2" t="s">
         <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>-7.475889417714309E-4</v>
+        <v>-7.476117482227571E-4</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.010619105184548394</v>
+        <v>0.010619429138116974</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.10218046335522875</v>
+        <v>-0.10218037317452229</v>
       </c>
       <c r="AC2" t="s">
         <v>5</v>
@@ -513,19 +513,19 @@
         <v>5</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.17348041466738867</v>
+        <v>-0.1711999536006626</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0805383605267898</v>
+        <v>0.0819479330450109</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.9470835532650222</v>
+        <v>-0.947525034780678</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.185700828772452</v>
+        <v>-0.18314874325763963</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.08550067657379276</v>
+        <v>0.08711071215215771</v>
       </c>
       <c r="AJ2" t="n">
         <v>0.0</v>
@@ -537,16 +537,16 @@
         <v>5</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.845784612239461</v>
+        <v>1.8808754170389337</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.05708413305591905</v>
+        <v>-0.060214972431027525</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0337834203509936</v>
+        <v>0.03358167102080408</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1.6897085156814253</v>
+        <v>-1.7930904151173397</v>
       </c>
     </row>
     <row r="3">
@@ -557,7 +557,7 @@
         <v>-2.9979499999999994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06878229201051857</v>
+        <v>0.0651132640334419</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -569,13 +569,13 @@
         <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.2436409956217984</v>
+        <v>-3.2357372102649924</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.22317212460945718</v>
+        <v>-0.2226283207258226</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7646074514769192</v>
+        <v>-0.7627443312404796</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
@@ -591,7 +591,7 @@
         <v>0.0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.010352023609586772</v>
+        <v>0.010352348364954423</v>
       </c>
       <c r="P3" t="n">
         <v>-0.08372001930116955</v>
@@ -600,37 +600,37 @@
         <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06877185904027379</v>
+        <v>0.06510338758521164</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.0011979559111082079</v>
+        <v>-0.0011340537987376545</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.08318603898533972</v>
+        <v>-0.0884209179700157</v>
       </c>
       <c r="U3" t="s">
         <v>5</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.22281459315546207</v>
+        <v>-0.2222733960394789</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01262752072518579</v>
+        <v>0.012566089378828244</v>
       </c>
       <c r="X3" t="n">
-        <v>0.20950036228721325</v>
+        <v>0.20899498053106727</v>
       </c>
       <c r="Y3" t="s">
         <v>5</v>
       </c>
       <c r="Z3" t="n">
-        <v>-5.414131742766601E-4</v>
+        <v>-5.414301590557811E-4</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.01033785589898416</v>
+        <v>0.010338180209893777</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.08083791356288904</v>
+        <v>-0.08083782314778336</v>
       </c>
       <c r="AC3" t="s">
         <v>5</v>
@@ -639,19 +639,19 @@
         <v>5</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.16402395254822877</v>
+        <v>-0.16925874111779904</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.045476409738984494</v>
+        <v>0.03973623941326822</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.6958251594664007</v>
+        <v>-0.6976310672070377</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.1753065375116892</v>
+        <v>-0.18103445706314328</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.047865587097767975</v>
+        <v>0.04159386366267931</v>
       </c>
       <c r="AJ3" t="n">
         <v>0.0</v>
@@ -663,16 +663,16 @@
         <v>5</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.032265924555786</v>
+        <v>0.8970103728573111</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.03181331906987838</v>
+        <v>0.026936376625323576</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.033781871309041006</v>
+        <v>0.03357967118775131</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.941727554961238</v>
+        <v>0.8021632038835753</v>
       </c>
     </row>
     <row r="4">
@@ -683,7 +683,7 @@
         <v>-1.9688999999999997</v>
       </c>
       <c r="C4" t="n">
-        <v>0.15548777641046524</v>
+        <v>0.15181874843338858</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -695,13 +695,13 @@
         <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.531242276424103</v>
+        <v>-2.529793600354413</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.17415697899161475</v>
+        <v>-0.17405730577969644</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.596677224347467</v>
+        <v>-0.5963357351015374</v>
       </c>
       <c r="J4" t="s">
         <v>5</v>
@@ -717,7 +717,7 @@
         <v>0.0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.010123162744499892</v>
+        <v>0.010123487499867544</v>
       </c>
       <c r="P4" t="n">
         <v>-0.0623034775210454</v>
@@ -726,37 +726,37 @@
         <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>0.15548775350486063</v>
+        <v>0.151818726068285</v>
       </c>
       <c r="S4" t="n">
-        <v>8.439835621411916E-5</v>
+        <v>8.240681747507752E-5</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.09494974996789783</v>
+        <v>-0.1085610659129002</v>
       </c>
       <c r="U4" t="s">
         <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.173987051981534</v>
+        <v>-0.17388767032806773</v>
       </c>
       <c r="W4" t="n">
-        <v>0.007691493630025688</v>
+        <v>0.007682695045619108</v>
       </c>
       <c r="X4" t="n">
-        <v>0.16383563329400344</v>
+        <v>0.16374254811018957</v>
       </c>
       <c r="Y4" t="s">
         <v>5</v>
       </c>
       <c r="Z4" t="n">
-        <v>-3.4780175395388995E-4</v>
+        <v>-3.4781291158212594E-4</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.010117186263560497</v>
+        <v>0.010117510827200096</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.059478691409489234</v>
+        <v>-0.059478600789148996</v>
       </c>
       <c r="AC4" t="s">
         <v>5</v>
@@ -765,19 +765,19 @@
         <v>5</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.15442844137738707</v>
+        <v>-0.1680396667020492</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.009407191916616375</v>
+        <v>-0.004297118591859626</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.4411894479370017</v>
+        <v>-0.44451698666814876</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.16477558166119083</v>
+        <v>-0.17916762764769092</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.009381397330423924</v>
+        <v>-0.005110321867994483</v>
       </c>
       <c r="AJ4" t="n">
         <v>0.0</v>
@@ -789,16 +789,16 @@
         <v>5</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.20231856279407934</v>
+        <v>-0.11020884622323956</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.12073959128186082</v>
+        <v>0.11403554152985523</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.033791225478201986</v>
+        <v>0.033588137635552254</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.5731048392946687</v>
+        <v>3.395113559650038</v>
       </c>
     </row>
     <row r="5">
@@ -809,7 +809,7 @@
         <v>-0.9398499999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.24219326081041193</v>
+        <v>0.23852423283333526</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -821,13 +821,13 @@
         <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.826007237246548</v>
+        <v>-1.8306802210441493</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.12563471581429983</v>
+        <v>-0.12595623096464598</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.43043565608340356</v>
+        <v>-0.4315371954452194</v>
       </c>
       <c r="J5" t="s">
         <v>5</v>
@@ -843,7 +843,7 @@
         <v>0.0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00997694737749256</v>
+        <v>0.009977272132860211</v>
       </c>
       <c r="P5" t="n">
         <v>-0.04088693574092123</v>
@@ -852,37 +852,37 @@
         <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>0.24215180274440268</v>
+        <v>0.2384834028228035</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004481072373450795</v>
+        <v>0.004413187826001036</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.10657998601507851</v>
+        <v>-0.1294211690717195</v>
       </c>
       <c r="U5" t="s">
         <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.12557091846554455</v>
+        <v>-0.12589194259276917</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0040032803373537</v>
+        <v>0.0040237928672030975</v>
       </c>
       <c r="X5" t="n">
-        <v>0.11841937296147528</v>
+        <v>0.1187209519130091</v>
       </c>
       <c r="Y5" t="s">
         <v>5</v>
       </c>
       <c r="Z5" t="n">
-        <v>-1.6364928739284117E-4</v>
+        <v>-1.6365461427114196E-4</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.009975605138736772</v>
+        <v>0.00997592985041378</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.03809754275253373</v>
+        <v>-0.0380974519561898</v>
       </c>
       <c r="AC5" t="s">
         <v>5</v>
@@ -891,19 +891,19 @@
         <v>5</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.14467752876761225</v>
+        <v>-0.1675186210279093</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.026258155806136954</v>
+        <v>-0.04879766911490019</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0.18824239527299164</v>
+        <v>-0.19301296261188414</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.15408853504436457</v>
+        <v>-0.17752060106853024</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0.028453819230064736</v>
+        <v>-0.05156437010388426</v>
       </c>
       <c r="AJ5" t="n">
         <v>0.0</v>
@@ -915,16 +915,16 @@
         <v>5</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.6136330878940708</v>
+        <v>-1.112033621789732</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.2096987802087506</v>
+        <v>0.20108835399812025</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.033811494646222254</v>
+        <v>0.033607053177041143</v>
       </c>
       <c r="AP5" t="n">
-        <v>6.201996758879755</v>
+        <v>5.98351640469016</v>
       </c>
     </row>
     <row r="6">
@@ -935,7 +935,7 @@
         <v>0.08919999999999995</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3288987452103586</v>
+        <v>0.325229717233282</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -947,13 +947,13 @@
         <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.128036743251065</v>
+        <v>-1.111893939030974</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.07761227489992731</v>
+        <v>-0.07650160207275102</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2659065231305539</v>
+        <v>-0.26210125972098586</v>
       </c>
       <c r="J6" t="s">
         <v>5</v>
@@ -969,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.009931095540104403</v>
+        <v>0.009931420295472055</v>
       </c>
       <c r="P6" t="n">
         <v>-0.019470393960797073</v>
@@ -978,37 +978,37 @@
         <v>5</v>
       </c>
       <c r="R6" t="n">
-        <v>0.32868012068945224</v>
+        <v>0.32501353157690566</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01199011528366264</v>
+        <v>0.01185635962461932</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.11806574768955708</v>
+        <v>-0.15098191908276848</v>
       </c>
       <c r="U6" t="s">
         <v>5</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.0775972335222379</v>
+        <v>-0.07648719723517439</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0015279282827301637</v>
+        <v>0.0014845129858219973</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0732848647635874</v>
+        <v>0.07223895552448603</v>
       </c>
       <c r="Y6" t="s">
         <v>5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.5461057897464844E-5</v>
+        <v>1.5461563487358878E-5</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.00993108350495404</v>
+        <v>0.009931408259928134</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.01668933379252672</v>
+        <v>-0.016689242849466737</v>
       </c>
       <c r="AC6" t="s">
         <v>5</v>
@@ -1017,19 +1017,19 @@
         <v>5</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.1347550814820838</v>
+        <v>-0.16767116193223522</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.06147021671849639</v>
+        <v>-0.09543220640774919</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.0629922220798047</v>
+        <v>0.06312845751229612</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.14322612569040313</v>
+        <v>-0.17606563359087765</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0.06561385079047583</v>
+        <v>-0.09956403151812664</v>
       </c>
       <c r="AJ6" t="n">
         <v>0.0</v>
@@ -1041,16 +1041,16 @@
         <v>5</v>
       </c>
       <c r="AM6" t="n">
-        <v>-1.415023745797829</v>
+        <v>-2.1522961265244307</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.29869494996006346</v>
+        <v>0.2881006646811841</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.033842692601891565</v>
+        <v>0.03363640344268069</v>
       </c>
       <c r="AP6" t="n">
-        <v>8.825980647395903</v>
+        <v>8.56514475966886</v>
       </c>
     </row>
     <row r="7">
@@ -1061,7 +1061,7 @@
         <v>1.1182499999999997</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4156042296103053</v>
+        <v>0.4119352016332286</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -1073,13 +1073,13 @@
         <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.43152267535000766</v>
+        <v>-0.3852033426726069</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.029690040422169786</v>
+        <v>-0.026503132901250948</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.10172070629863943</v>
+        <v>-0.09080207906449642</v>
       </c>
       <c r="J7" t="s">
         <v>5</v>
@@ -1095,7 +1095,7 @@
         <v>0.0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.010002957894050406</v>
+        <v>0.010003282649418058</v>
       </c>
       <c r="P7" t="n">
         <v>0.0019461478193270876</v>
@@ -1104,37 +1104,37 @@
         <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>0.41498888363933223</v>
+        <v>0.41132528804581237</v>
       </c>
       <c r="S7" t="n">
-        <v>0.022607567886797023</v>
+        <v>0.02240798426093235</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.1293960763358661</v>
+        <v>-0.17322350077611431</v>
       </c>
       <c r="U7" t="s">
         <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.029689198366665996</v>
+        <v>-0.026502533937675876</v>
       </c>
       <c r="W7" t="n">
-        <v>2.2360817255406482E-4</v>
+        <v>1.7818098582323845E-4</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02808009028129519</v>
+        <v>0.02506856197458418</v>
       </c>
       <c r="Y7" t="s">
         <v>5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.9521677907107752E-4</v>
+        <v>1.9522311696608123E-4</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.010001052796546695</v>
+        <v>0.010001377490063577</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.004750947519592813</v>
+        <v>0.004751038580033885</v>
       </c>
       <c r="AC7" t="s">
         <v>5</v>
@@ -1143,19 +1143,19 @@
         <v>5</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.12464512881627329</v>
+        <v>-0.16847246219608042</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.09656503853497811</v>
+        <v>-0.14340390022149624</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.31388352331166586</v>
+        <v>0.32113312256873217</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.13216918008287606</v>
+        <v>-0.17477484046129102</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0.10247913966070628</v>
+        <v>-0.14827170756004007</v>
       </c>
       <c r="AJ7" t="n">
         <v>0.0</v>
@@ -1167,16 +1167,16 @@
         <v>5</v>
       </c>
       <c r="AM7" t="n">
-        <v>-2.2158310521963838</v>
+        <v>-3.213882326972552</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.38773214388307087</v>
+        <v>0.3750783539683927</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.03388483512334071</v>
+        <v>0.03367617689401299</v>
       </c>
       <c r="AP7" t="n">
-        <v>11.4426451382079</v>
+        <v>11.137794980376016</v>
       </c>
     </row>
     <row r="8">
@@ -1187,7 +1187,7 @@
         <v>2.1472999999999995</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5023097140102519</v>
+        <v>0.4986406860331753</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -1199,13 +1199,13 @@
         <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2959415905104996</v>
+        <v>0.3497814670181376</v>
       </c>
       <c r="H8" t="n">
-        <v>0.020361659506609276</v>
+        <v>0.024066002757030247</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06976084764364682</v>
+        <v>0.08245225548437353</v>
       </c>
       <c r="J8" t="s">
         <v>5</v>
@@ -1221,7 +1221,7 @@
         <v>0.0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.010209571023926877</v>
+        <v>0.010209895779294528</v>
       </c>
       <c r="P8" t="n">
         <v>0.02336268959945125</v>
@@ -1230,37 +1230,37 @@
         <v>5</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5009943753361047</v>
+        <v>0.497334955005984</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03632746441258155</v>
+        <v>0.03606211719840584</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.1405601507917344</v>
+        <v>-0.19612569355224438</v>
       </c>
       <c r="U8" t="s">
         <v>5</v>
       </c>
       <c r="V8" t="n">
-        <v>0.020361387894610273</v>
+        <v>0.024065554299890563</v>
       </c>
       <c r="W8" t="n">
-        <v>1.0517066278253794E-4</v>
+        <v>1.4691814185541406E-4</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.019287082220715263</v>
+        <v>-0.022798368739826002</v>
       </c>
       <c r="Y8" t="s">
         <v>5</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.8253917438164914E-4</v>
+        <v>3.825513425373852E-4</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.010202401887431739</v>
+        <v>0.010202726414756943</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.02622818978776259</v>
+        <v>0.02622828093621192</v>
       </c>
       <c r="AC8" t="s">
         <v>5</v>
@@ -1269,19 +1269,19 @@
         <v>5</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.1143319610039718</v>
+        <v>-0.16989741261603247</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.13361904322468707</v>
+        <v>-0.19269578135585846</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.5720705616538988</v>
+        <v>0.5810929415175489</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.12089873138355754</v>
+        <v>-0.1736203087725402</v>
       </c>
       <c r="AI8" t="n">
-        <v>-0.14126039089016681</v>
+        <v>-0.19768631152957045</v>
       </c>
       <c r="AJ8" t="n">
         <v>0.0</v>
@@ -1293,16 +1293,16 @@
         <v>5</v>
       </c>
       <c r="AM8" t="n">
-        <v>-3.0610703345197727</v>
+        <v>-4.290876056452108</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.47681436174035474</v>
+        <v>0.46202730818621596</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.03393793995246777</v>
+        <v>0.0337263648232917</v>
       </c>
       <c r="AP8" t="n">
-        <v>14.049596481346935</v>
+        <v>13.699291655267162</v>
       </c>
     </row>
     <row r="9">
@@ -1313,7 +1313,7 @@
         <v>3.1763499999999993</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5890151984101987</v>
+        <v>0.585346170433122</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -1325,13 +1325,13 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0315839715350066</v>
+        <v>1.0930141278802603</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07097603802371366</v>
+        <v>0.07520261504785604</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2431701882312094</v>
+        <v>0.25765081520268135</v>
       </c>
       <c r="J9" t="s">
         <v>5</v>
@@ -1347,7 +1347,7 @@
         <v>0.0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01056770730135666</v>
+        <v>0.01056803205672431</v>
       </c>
       <c r="P9" t="n">
         <v>0.04477923137957541</v>
@@ -1356,37 +1356,37 @@
         <v>5</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5866130319920685</v>
+        <v>0.5829589673229293</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0531418352644902</v>
+        <v>0.05281081005348567</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.1515472397652733</v>
+        <v>-0.21966782868780457</v>
       </c>
       <c r="U9" t="s">
         <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>0.07096453441949072</v>
+        <v>0.07518893158358576</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0012778216497479576</v>
+        <v>0.0014345303603909357</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.06732343952670848</v>
+        <v>-0.07134021615692311</v>
       </c>
       <c r="Y9" t="s">
         <v>5</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.855500407695244E-4</v>
+        <v>5.855680352609827E-4</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.010551472350193677</v>
+        <v>0.010551796606646343</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.04774715607483813</v>
+        <v>0.0477472472818945</v>
       </c>
       <c r="AC9" t="s">
         <v>5</v>
@@ -1395,19 +1395,19 @@
         <v>5</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.10380008369043517</v>
+        <v>-0.17192058140591007</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.17112352321714366</v>
+        <v>-0.2432607975628332</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.8321853866414081</v>
+        <v>0.8429969856358033</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.1093959750617083</v>
+        <v>-0.1725740578481055</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.18037201308542195</v>
+        <v>-0.24777667289596156</v>
       </c>
       <c r="AJ9" t="n">
         <v>0.0</v>
@@ -1419,16 +1419,16 @@
         <v>5</v>
       </c>
       <c r="AM9" t="n">
-        <v>-3.9135100683287645</v>
+        <v>-5.395767088853374</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.5659455690667888</v>
+        <v>0.5489534279524391</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.034002026777854605</v>
+        <v>0.03378696136079595</v>
       </c>
       <c r="AP9" t="n">
-        <v>16.644465718596138</v>
+        <v>16.24749328862129</v>
       </c>
     </row>
     <row r="10">
@@ -1439,7 +1439,7 @@
         <v>4.205399999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6757206828101454</v>
+        <v>0.6720516548330687</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -1451,13 +1451,13 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>1.7756099837873354</v>
+        <v>1.8449583123346898</v>
       </c>
       <c r="H10" t="n">
-        <v>0.12216723524411494</v>
+        <v>0.12693860600953497</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4185557607494571</v>
+        <v>0.4349028992972643</v>
       </c>
       <c r="J10" t="s">
         <v>5</v>
@@ -1473,7 +1473,7 @@
         <v>0.0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.011093921273441635</v>
+        <v>0.011094246028809287</v>
       </c>
       <c r="P10" t="n">
         <v>0.06619577315969957</v>
@@ -1482,37 +1482,37 @@
         <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6717614872504488</v>
+        <v>0.6681139569123298</v>
       </c>
       <c r="S10" t="n">
-        <v>0.07304071073363241</v>
+        <v>0.07264411430264443</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.16234671998970582</v>
+        <v>-0.2438288126799229</v>
       </c>
       <c r="U10" t="s">
         <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>0.12210857553791546</v>
+        <v>0.126872801742948</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0037853860162620333</v>
+        <v>0.0040867925734688094</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.11602295692324352</v>
+        <v>-0.12056714785160964</v>
       </c>
       <c r="Y10" t="s">
         <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.13541559057749E-4</v>
+        <v>8.135653740805528E-4</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.011064051669845308</v>
+        <v>0.011064375550831949</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.06931248130750196</v>
+        <v>0.06931257254374526</v>
       </c>
       <c r="AC10" t="s">
         <v>5</v>
@@ -1521,19 +1521,19 @@
         <v>5</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.09303423868220385</v>
+        <v>-0.17451624013617764</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.2090571956054474</v>
+        <v>-0.2950833879877873</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.0942764435596026</v>
+        <v>1.106954554130333</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.09764229454735883</v>
+        <v>-0.17160806976271492</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.21980952979147378</v>
+        <v>-0.2985466757722499</v>
       </c>
       <c r="AJ10" t="n">
         <v>0.0</v>
@@ -1545,16 +1545,16 @@
         <v>5</v>
       </c>
       <c r="AM10" t="n">
-        <v>-4.773052689066006</v>
+        <v>-6.540389063697859</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.6551296917597254</v>
+        <v>0.6358626217399345</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.034077117211424555</v>
+        <v>0.033857963475657116</v>
       </c>
       <c r="AP10" t="n">
-        <v>19.224915291252668</v>
+        <v>18.780297350048862</v>
       </c>
     </row>
     <row r="11">
@@ -1565,7 +1565,7 @@
         <v>5.234449999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7624261515943125</v>
+        <v>0.7587571392330154</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -1577,13 +1577,13 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>2.5285479255626546</v>
+        <v>2.6058167845759943</v>
       </c>
       <c r="H11" t="n">
-        <v>0.17397159965801884</v>
+        <v>0.17928792642026892</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5960420983429746</v>
+        <v>0.6142563043690004</v>
       </c>
       <c r="J11" t="s">
         <v>5</v>
@@ -1599,7 +1599,7 @@
         <v>0.0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.011804592557616355</v>
+        <v>0.011804917312984005</v>
       </c>
       <c r="P11" t="n">
         <v>0.08761231493982374</v>
@@ -1608,37 +1608,37 @@
         <v>5</v>
       </c>
       <c r="R11" t="n">
-        <v>0.7563566015675038</v>
+        <v>0.7527167976141677</v>
       </c>
       <c r="S11" t="n">
-        <v>0.09601212371450739</v>
+        <v>0.09555008595779313</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.17294807775555615</v>
+        <v>-0.2685871361962574</v>
       </c>
       <c r="U11" t="s">
         <v>5</v>
       </c>
       <c r="V11" t="n">
-        <v>0.17380221464230597</v>
+        <v>0.1791025354072324</v>
       </c>
       <c r="W11" t="n">
-        <v>0.007675133419021979</v>
+        <v>0.008151218975148858</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.1653992861841421</v>
+        <v>-0.1704707573992312</v>
       </c>
       <c r="Y11" t="s">
         <v>5</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0010769489758520447</v>
+        <v>0.0010769786037243228</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.011755364152366471</v>
+        <v>0.011755687553414709</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0909286691002487</v>
+        <v>0.09092876033624937</v>
       </c>
       <c r="AC11" t="s">
         <v>5</v>
@@ -1647,19 +1647,19 @@
         <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.08201940865530745</v>
+        <v>-0.17765837586000804</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.2474186948394495</v>
+        <v>-0.3481291332592393</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.358468249937287</v>
+        <v>1.3730134436020158</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0.08561926975307553</v>
+        <v>-0.1706943049268742</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0.2595908694110944</v>
+        <v>-0.3499822313471431</v>
       </c>
       <c r="AJ11" t="n">
         <v>0.0</v>
@@ -1671,16 +1671,16 @@
         <v>5</v>
       </c>
       <c r="AM11" t="n">
-        <v>-5.662121002192778</v>
+        <v>-7.7000160848508195</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.7443705986661294</v>
+        <v>0.7227608025901664</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.034163234748964356</v>
+        <v>0.03393937097567166</v>
       </c>
       <c r="AP11" t="n">
-        <v>21.78864513667561</v>
+        <v>21.29564519944268</v>
       </c>
     </row>
     <row r="12">
@@ -1691,7 +1691,7 @@
         <v>6.263499999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8488539826686329</v>
+        <v>0.8452270938155719</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -1703,13 +1703,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>3.2907779638911983</v>
+        <v>3.3763149517557816</v>
       </c>
       <c r="H12" t="n">
-        <v>0.22641528788508777</v>
+        <v>0.2323004864444225</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7757188159058008</v>
+        <v>0.7958820270584622</v>
       </c>
       <c r="J12" t="s">
         <v>5</v>
@@ -1725,7 +1725,7 @@
         <v>0.0</v>
       </c>
       <c r="O12" t="n">
-        <v>0.012715965252186033</v>
+        <v>0.012716290007553685</v>
       </c>
       <c r="P12" t="n">
         <v>0.10902885671994789</v>
@@ -1734,37 +1734,37 @@
         <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>0.840040798378604</v>
+        <v>0.8364515655188164</v>
       </c>
       <c r="S12" t="n">
-        <v>0.12200221699558292</v>
+        <v>0.12148093949685587</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.18330619656575514</v>
+        <v>-0.2938604950635706</v>
       </c>
       <c r="U12" t="s">
         <v>5</v>
       </c>
       <c r="V12" t="n">
-        <v>0.22604194467403738</v>
+        <v>0.23189727292463638</v>
       </c>
       <c r="W12" t="n">
-        <v>0.012996993347178047</v>
+        <v>0.013681038426670266</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.215454825661924</v>
+        <v>-0.2210752582825755</v>
       </c>
       <c r="Y12" t="s">
         <v>5</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.001387325680027706</v>
+        <v>0.0013873611111925711</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.012640059325507071</v>
+        <v>0.012640382142299346</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.11260008793246273</v>
+        <v>0.11260017913879133</v>
       </c>
       <c r="AC12" t="s">
         <v>5</v>
@@ -1773,19 +1773,19 @@
         <v>5</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.07070610863329241</v>
+        <v>-0.18126031592477926</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.28616093429521644</v>
+        <v>-0.4023355742073547</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.6245727985744338</v>
+        <v>1.641109120874034</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0.07327192555844984</v>
+        <v>-0.16974650726821014</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.2996872134435376</v>
+        <v>-0.40204699371263264</v>
       </c>
       <c r="AJ12" t="n">
         <v>0.0</v>
@@ -1797,16 +1797,16 @@
         <v>5</v>
       </c>
       <c r="AM12" t="n">
-        <v>-6.566102760915387</v>
+        <v>-8.923784578736104</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.8334022609489091</v>
+        <v>0.8094306305288094</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.03426009455570587</v>
+        <v>0.034030937261649324</v>
       </c>
       <c r="AP12" t="n">
-        <v>24.325743164363498</v>
+        <v>23.785140688469536</v>
       </c>
     </row>
     <row r="13">
@@ -1817,7 +1817,7 @@
         <v>7.2925499999999985</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9337487598838506</v>
+        <v>0.9302764265391015</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -1829,13 +1829,13 @@
         <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>4.066532542862461</v>
+        <v>4.159705163094847</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2797895046366379</v>
+        <v>0.286200057358335</v>
       </c>
       <c r="I13" t="n">
-        <v>0.958583606552912</v>
+        <v>0.9805467275639826</v>
       </c>
       <c r="J13" t="s">
         <v>5</v>
@@ -1851,7 +1851,7 @@
         <v>0.0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.013844183896903877</v>
+        <v>0.013844508652271529</v>
       </c>
       <c r="P13" t="n">
         <v>0.13044539850007206</v>
@@ -1860,37 +1860,37 @@
         <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9214949143258129</v>
+        <v>0.918068149380574</v>
       </c>
       <c r="S13" t="n">
-        <v>0.15077754957649234</v>
+        <v>0.150216852807161</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.19325604478030195</v>
+        <v>-0.3193159920646322</v>
       </c>
       <c r="U13" t="s">
         <v>5</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2790850997708543</v>
+        <v>0.2854461312414991</v>
       </c>
       <c r="W13" t="n">
-        <v>0.019841219486400493</v>
+        <v>0.020760033506117458</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.2664434721983415</v>
+        <v>-0.27256923895403484</v>
       </c>
       <c r="Y13" t="s">
         <v>5</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0017573202662554271</v>
+        <v>0.0017573614892840578</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.013732197684751722</v>
+        <v>0.013732519813158928</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.1343309666279953</v>
+        <v>0.13433105777523194</v>
       </c>
       <c r="AC13" t="s">
         <v>5</v>
@@ -1899,19 +1899,19 @@
         <v>5</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.05892507815230666</v>
+        <v>-0.18498493428940024</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.32536855035064816</v>
+        <v>-0.45755417324343517</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.8923323664367626</v>
+        <v>1.9108231541030842</v>
       </c>
       <c r="AH13" t="n">
-        <v>-0.060418397554167225</v>
+        <v>-0.16844230774409272</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.3402079021908051</v>
+        <v>-0.4546423651024277</v>
       </c>
       <c r="AJ13" t="n">
         <v>0.0</v>
@@ -1923,16 +1923,16 @@
         <v>5</v>
       </c>
       <c r="AM13" t="n">
-        <v>-7.479651473704955</v>
+        <v>-10.21915645830262</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.9210076143681113</v>
+        <v>0.8947549953053396</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.034366072708199975</v>
+        <v>0.034131201162357065</v>
       </c>
       <c r="AP13" t="n">
-        <v>26.79990879924876</v>
+        <v>26.215162808045424</v>
       </c>
     </row>
     <row r="14">
@@ -1943,7 +1943,7 @@
         <v>8.321599999999997</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0156570840903227</v>
+        <v>1.0124801727613961</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -1955,13 +1955,13 @@
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>4.8574714248340936</v>
+        <v>4.9583211303676045</v>
       </c>
       <c r="H14" t="n">
-        <v>0.334208446487507</v>
+        <v>0.3411472054563729</v>
       </c>
       <c r="I14" t="n">
-        <v>1.145027717857037</v>
+        <v>1.1688005202214966</v>
       </c>
       <c r="J14" t="s">
         <v>5</v>
@@ -1977,7 +1977,7 @@
         <v>0.0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.015205326040838648</v>
+        <v>0.0152056507962063</v>
       </c>
       <c r="P14" t="n">
         <v>0.15186194028019617</v>
@@ -1986,37 +1986,37 @@
         <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>0.9992212754568881</v>
+        <v>0.9960957743012036</v>
       </c>
       <c r="S14" t="n">
-        <v>0.18197844690283152</v>
+        <v>0.18140922979339358</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.2026141063239723</v>
+        <v>-0.34454083986921225</v>
       </c>
       <c r="U14" t="s">
         <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3330081113158983</v>
+        <v>0.33987057616069494</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0282998851837096</v>
+        <v>0.02948571265697924</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.31844808534102664</v>
+        <v>-0.3250788090160802</v>
       </c>
       <c r="Y14" t="s">
         <v>5</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.0022006551779593345</v>
+        <v>0.002200702179554662</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.015045233690306267</v>
+        <v>0.015045555026421346</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.15612538910147492</v>
+        <v>0.15612548016021882</v>
       </c>
       <c r="AC14" t="s">
         <v>5</v>
@@ -2025,19 +2025,19 @@
         <v>5</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.046488717222497394</v>
+        <v>-0.18841535970899342</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.364936802563524</v>
+        <v>-0.5134941687250736</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.16068480194736</v>
+        <v>2.1812806929828925</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.04685735184041207</v>
+        <v>-0.16639666793409763</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.3810657983279191</v>
+        <v>-0.5075438733904705</v>
       </c>
       <c r="AJ14" t="n">
         <v>0.0</v>
@@ -2049,16 +2049,16 @@
         <v>5</v>
       </c>
       <c r="AM14" t="n">
-        <v>-8.407038527080271</v>
+        <v>-11.52206818631604</v>
       </c>
       <c r="AN14" t="n">
-        <v>1.0057757174462365</v>
+        <v>0.9773901299051326</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.03447869386407652</v>
+        <v>0.03423787523724677</v>
       </c>
       <c r="AP14" t="n">
-        <v>29.170934415649597</v>
+        <v>28.54704397198829</v>
       </c>
     </row>
     <row r="15">
@@ -2069,7 +2069,7 @@
         <v>9.350649999999998</v>
       </c>
       <c r="C15" t="n">
-        <v>1.093147894553593</v>
+        <v>1.0904125576067505</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -2081,13 +2081,13 @@
         <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>5.6718580454938685</v>
+        <v>5.779255531425438</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3902406623312081</v>
+        <v>0.39762992801918473</v>
       </c>
       <c r="I15" t="n">
-        <v>1.3369990486485952</v>
+        <v>1.3623153269062709</v>
       </c>
       <c r="J15" t="s">
         <v>5</v>
@@ -2103,7 +2103,7 @@
         <v>0.0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.016815431495468332</v>
+        <v>0.01681575625083598</v>
       </c>
       <c r="P15" t="n">
         <v>0.17327848206032037</v>
@@ -2112,37 +2112,37 @@
         <v>5</v>
       </c>
       <c r="R15" t="n">
-        <v>1.0717670774125032</v>
+        <v>1.0690852407645417</v>
       </c>
       <c r="S15" t="n">
-        <v>0.21514565099395952</v>
+        <v>0.21460730128753064</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.21120684990364166</v>
+        <v>-0.36910311167315035</v>
       </c>
       <c r="U15" t="s">
         <v>5</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3883301348925055</v>
+        <v>0.39560886734126244</v>
       </c>
       <c r="W15" t="n">
-        <v>0.038567873561662934</v>
+        <v>0.04003977694125503</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.37198229045826287</v>
+        <v>-0.37903952275519837</v>
       </c>
       <c r="Y15" t="s">
         <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.0027321065269740497</v>
+        <v>0.0027321592919750466</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.016591995971071537</v>
+        <v>0.016592316411243</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.17798728834972913</v>
+        <v>0.17798737929060796</v>
       </c>
       <c r="AC15" t="s">
         <v>5</v>
@@ -2151,19 +2151,19 @@
         <v>5</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.033219561553912536</v>
+        <v>-0.1911157323825424</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.4052018520121754</v>
+        <v>-0.5701552551377408</v>
       </c>
       <c r="AG15" t="n">
-        <v>2.430146943202188</v>
+        <v>2.4527278845130214</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.032398142276210275</v>
+        <v>-0.1632217133529227</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.4226388046074184</v>
+        <v>-0.5608516413721074</v>
       </c>
       <c r="AJ15" t="n">
         <v>0.0</v>
@@ -2175,16 +2175,16 @@
         <v>5</v>
       </c>
       <c r="AM15" t="n">
-        <v>-9.430940476253586</v>
+        <v>-13.210437628947169</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.0863157132662502</v>
+        <v>1.055992055154771</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.034594878017620775</v>
+        <v>0.034348081641542016</v>
       </c>
       <c r="AP15" t="n">
-        <v>31.40105632726727</v>
+        <v>30.74384375160008</v>
       </c>
     </row>
     <row r="16">
@@ -2195,7 +2195,7 @@
         <v>10.379699999999996</v>
       </c>
       <c r="C16" t="n">
-        <v>1.1648124689543904</v>
+        <v>1.1626469959697991</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -2207,13 +2207,13 @@
         <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>6.509908497292987</v>
+        <v>6.622335057547261</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4479010199695452</v>
+        <v>0.4556363008925407</v>
       </c>
       <c r="I16" t="n">
-        <v>1.5345485373324899</v>
+        <v>1.5610502944105284</v>
       </c>
       <c r="J16" t="s">
         <v>5</v>
@@ -2229,7 +2229,7 @@
         <v>0.0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.018690528369395186</v>
+        <v>0.01869085312476284</v>
       </c>
       <c r="P16" t="n">
         <v>0.19469502384044451</v>
@@ -2238,37 +2238,37 @@
         <v>5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.1377285967185655</v>
+        <v>1.1356134746661697</v>
       </c>
       <c r="S16" t="n">
-        <v>0.2497233029583474</v>
+        <v>0.2492590487710063</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.21887116489650466</v>
+        <v>-0.39255298187842425</v>
       </c>
       <c r="U16" t="s">
         <v>5</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4450130724026162</v>
+        <v>0.4525962432276187</v>
       </c>
       <c r="W16" t="n">
-        <v>0.05078079440637717</v>
+        <v>0.05254597327373511</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.427025488629856</v>
+        <v>-0.43440419768768385</v>
       </c>
       <c r="Y16" t="s">
         <v>5</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.003367484696509963</v>
+        <v>0.0033675432078965365</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01838466473846987</v>
+        <v>0.01838498417933523</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.19992043968003986</v>
+        <v>0.19992053047371933</v>
       </c>
       <c r="AC16" t="s">
         <v>5</v>
@@ -2277,19 +2277,19 @@
         <v>5</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.018950725216464792</v>
+        <v>-0.19263245140470492</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.44597621384632075</v>
+        <v>-0.6270366490923889</v>
       </c>
       <c r="AG16" t="n">
-        <v>2.69936100628688</v>
+        <v>2.7236972903803274</v>
       </c>
       <c r="AH16" t="n">
-        <v>-0.016861282316211906</v>
+        <v>-0.1585279009651198</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.4647623022857571</v>
+        <v>-0.6141642018576605</v>
       </c>
       <c r="AJ16" t="n">
         <v>0.0</v>
@@ -2301,16 +2301,16 @@
         <v>5</v>
       </c>
       <c r="AM16" t="n">
-        <v>-10.468400483087812</v>
+        <v>-14.945431321916939</v>
       </c>
       <c r="AN16" t="n">
-        <v>1.1612567299697505</v>
+        <v>1.1292163335181766</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.0347110196469657</v>
+        <v>0.034458413921909105</v>
       </c>
       <c r="AP16" t="n">
-        <v>33.45498754518042</v>
+        <v>32.77040945869555</v>
       </c>
     </row>
     <row r="17">
@@ -2321,7 +2321,7 @@
         <v>11.408749999999998</v>
       </c>
       <c r="C17" t="n">
-        <v>1.2292644233886303</v>
+        <v>1.2277560925155162</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -2333,13 +2333,13 @@
         <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>7.381169226939118</v>
+        <v>7.4994812355122775</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5078463432609839</v>
+        <v>0.5159865604908573</v>
       </c>
       <c r="I17" t="n">
-        <v>1.7399265205821264</v>
+        <v>1.767815625287716</v>
       </c>
       <c r="J17" t="s">
         <v>5</v>
@@ -2355,7 +2355,7 @@
         <v>0.0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02084665599731792</v>
+        <v>0.020846980752685575</v>
       </c>
       <c r="P17" t="n">
         <v>0.2161115656205687</v>
@@ -2364,37 +2364,37 @@
         <v>5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.1957552593305172</v>
+        <v>1.1942880448402735</v>
       </c>
       <c r="S17" t="n">
-        <v>0.28506206761403613</v>
+        <v>0.28471229102475626</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.22545477257566646</v>
+        <v>-0.4144239977214461</v>
       </c>
       <c r="U17" t="s">
         <v>5</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5036380433834922</v>
+        <v>0.511572833710366</v>
       </c>
       <c r="W17" t="n">
-        <v>0.06524285110570148</v>
+        <v>0.06734512912402352</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.484162393805217</v>
+        <v>-0.4919122295245814</v>
       </c>
       <c r="Y17" t="s">
         <v>5</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.004123615347367727</v>
+        <v>0.004123679586266204</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.020434746456402746</v>
+        <v>0.020435064794921843</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.2219284531794224</v>
+        <v>0.22192854379661575</v>
       </c>
       <c r="AC17" t="s">
         <v>5</v>
@@ -2403,19 +2403,19 @@
         <v>5</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.0035263193962440653</v>
+        <v>-0.19249545392483036</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.48768871320146107</v>
+        <v>-0.6844076834494118</v>
       </c>
       <c r="AG17" t="n">
-        <v>2.969190943970757</v>
+        <v>2.995571717803232</v>
       </c>
       <c r="AH17" t="n">
-        <v>-7.889149540778448E-5</v>
+        <v>-0.15192519262232862</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.5079252347563916</v>
+        <v>-0.667911753113186</v>
       </c>
       <c r="AJ17" t="n">
         <v>0.0</v>
@@ -2427,16 +2427,16 @@
         <v>5</v>
       </c>
       <c r="AM17" t="n">
-        <v>-11.531460738860375</v>
+        <v>-22.448444370929778</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.2292477866014324</v>
+        <v>1.195717821639954</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.03482309135581882</v>
+        <v>0.03456502360598802</v>
       </c>
       <c r="AP17" t="n">
-        <v>35.29978927031788</v>
+        <v>34.59328815365857</v>
       </c>
     </row>
     <row r="18">
@@ -2447,7 +2447,7 @@
         <v>12.437799999999996</v>
       </c>
       <c r="C18" t="n">
-        <v>1.285139712367413</v>
+        <v>1.2843116416792144</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -2459,13 +2459,13 @@
         <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>8.287070953683713</v>
+        <v>8.407810789062083</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5701750699350687</v>
+        <v>0.5784823288526733</v>
       </c>
       <c r="I18" t="n">
-        <v>1.9534702547714724</v>
+        <v>1.9819316590837892</v>
       </c>
       <c r="J18" t="s">
         <v>5</v>
@@ -2481,7 +2481,7 @@
         <v>0.0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.023299884889942626</v>
+        <v>0.02330020964531028</v>
       </c>
       <c r="P18" t="n">
         <v>0.23752810740069283</v>
@@ -2490,37 +2490,37 @@
         <v>5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.2445535622631911</v>
+        <v>1.243751642973883</v>
       </c>
       <c r="S18" t="n">
-        <v>0.3204223946009364</v>
+        <v>0.3202159326962438</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.23081661235011108</v>
+        <v>-0.4342343804624887</v>
       </c>
       <c r="U18" t="s">
         <v>5</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5642214948540953</v>
+        <v>0.5722650374681123</v>
       </c>
       <c r="W18" t="n">
-        <v>0.08218099001636932</v>
+        <v>0.08458446480549703</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.543434444166242</v>
+        <v>-0.5513214448860838</v>
       </c>
       <c r="Y18" t="s">
         <v>5</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0050183204641755675</v>
+        <v>0.005018390409864786</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.02275304585332288</v>
+        <v>0.022753362986811146</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.24401476544061879</v>
+        <v>0.24401485585209617</v>
       </c>
       <c r="AC18" t="s">
         <v>5</v>
@@ -2529,19 +2529,19 @@
         <v>5</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.013198153090507703</v>
+        <v>-0.19021952461039252</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.5302362910757343</v>
+        <v>-0.7415409694964764</v>
       </c>
       <c r="AG18" t="n">
-        <v>3.2386099671388857</v>
+        <v>3.2662433007630036</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.018104883780341776</v>
+        <v>-0.1430242331253905</v>
       </c>
       <c r="AI18" t="n">
-        <v>-0.5520701861547269</v>
+        <v>-0.7215065619780637</v>
       </c>
       <c r="AJ18" t="n">
         <v>0.0</v>
@@ -2553,16 +2553,16 @@
         <v>5</v>
       </c>
       <c r="AM18" t="n">
-        <v>-12.924655642891928</v>
+        <v>-25.0</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.2889577043719855</v>
+        <v>1.2541504219134323</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.034926770707931785</v>
+        <v>0.03466373165684507</v>
       </c>
       <c r="AP18" t="n">
-        <v>36.90457715517531</v>
+        <v>36.18047919159259</v>
       </c>
     </row>
     <row r="19">
@@ -2573,7 +2573,7 @@
         <v>13.466849999999997</v>
       </c>
       <c r="C19" t="n">
-        <v>1.3310966288170252</v>
+        <v>1.3308846276665467</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -2585,13 +2585,13 @@
         <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>9.23506042298651</v>
+        <v>9.359951349564106</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6353995581744463</v>
+        <v>0.6439924244831368</v>
       </c>
       <c r="I19" t="n">
-        <v>2.176935124382179</v>
+        <v>2.206375044894955</v>
       </c>
       <c r="J19" t="s">
         <v>5</v>
@@ -2607,7 +2607,7 @@
         <v>0.0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0260663338434083</v>
+        <v>0.026066658598775952</v>
       </c>
       <c r="P19" t="n">
         <v>0.258944649180817</v>
@@ -2616,37 +2616,37 @@
         <v>5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.2828908443335023</v>
+        <v>1.2826865208238118</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3549779102610799</v>
+        <v>0.354921373625241</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.23482720272616892</v>
+        <v>-0.4514883547201898</v>
       </c>
       <c r="U19" t="s">
         <v>5</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6271636652808458</v>
+        <v>0.6354183623469801</v>
       </c>
       <c r="W19" t="n">
-        <v>0.10197222896346199</v>
+        <v>0.10473656278468604</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.6052634452727353</v>
+        <v>-0.6133913384334652</v>
       </c>
       <c r="Y19" t="s">
         <v>5</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.006070399098265792</v>
+        <v>0.006070474728183785</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.02534963539824166</v>
+        <v>0.025349951224403217</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.26618263057099373</v>
+        <v>0.26618272074759164</v>
       </c>
       <c r="AC19" t="s">
         <v>5</v>
@@ -2655,19 +2655,19 @@
         <v>5</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.03135542784482481</v>
+        <v>-0.18530563397259814</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.5739080174279105</v>
+        <v>-0.7986969724060632</v>
       </c>
       <c r="AG19" t="n">
-        <v>3.5080317531992042</v>
+        <v>3.5372596725615013</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.03783347546009742</v>
+        <v>-0.13143753159612323</v>
       </c>
       <c r="AI19" t="n">
-        <v>-0.5975660827143489</v>
+        <v>-0.77542995607926</v>
       </c>
       <c r="AJ19" t="n">
         <v>0.0</v>
@@ -2679,16 +2679,16 @@
         <v>5</v>
       </c>
       <c r="AM19" t="n">
-        <v>-14.405265331641342</v>
+        <v>-25.0</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.3390750234073665</v>
+        <v>1.3031668333507607</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.035017588980117316</v>
+        <v>0.034750164889610184</v>
       </c>
       <c r="AP19" t="n">
-        <v>38.24006913119238</v>
+        <v>37.501025894135815</v>
       </c>
     </row>
     <row r="20">
@@ -2699,7 +2699,7 @@
         <v>14.495899999999995</v>
       </c>
       <c r="C20" t="n">
-        <v>1.365815804078939</v>
+        <v>1.366045224453504</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -2711,13 +2711,13 @@
         <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>10.230379971447693</v>
+        <v>10.354764571806893</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7038804962915902</v>
+        <v>0.7124385258541497</v>
       </c>
       <c r="I20" t="n">
-        <v>2.4115568794966578</v>
+        <v>2.4408774462338516</v>
       </c>
       <c r="J20" t="s">
         <v>5</v>
@@ -2733,7 +2733,7 @@
         <v>0.0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.029162184356603327</v>
+        <v>0.029162509111970977</v>
       </c>
       <c r="P20" t="n">
         <v>0.28036119096094114</v>
@@ -2742,37 +2742,37 @@
         <v>5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.3095989022396732</v>
+        <v>1.3098188796844974</v>
       </c>
       <c r="S20" t="n">
-        <v>0.3878189344583906</v>
+        <v>0.3878840776240658</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.23736897672784976</v>
+        <v>-0.46567750450818607</v>
       </c>
       <c r="U20" t="s">
         <v>5</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6926899042293819</v>
+        <v>0.7008355279001367</v>
       </c>
       <c r="W20" t="n">
-        <v>0.12501379779202418</v>
+        <v>0.12805551903049944</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.669907984437187</v>
+        <v>-0.6779641804180389</v>
       </c>
       <c r="Y20" t="s">
         <v>5</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.007299607486172744</v>
+        <v>0.0072996887759240155</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.028233822394361178</v>
+        <v>0.028234136811321846</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.28843511051995585</v>
+        <v>0.2884352004325866</v>
       </c>
       <c r="AC20" t="s">
         <v>5</v>
@@ -2781,19 +2781,19 @@
         <v>5</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.05106613379210609</v>
+        <v>-0.1772423040755995</v>
       </c>
       <c r="AF20" t="n">
-        <v>-0.6188418506450809</v>
+        <v>-0.8552064844936385</v>
       </c>
       <c r="AG20" t="n">
-        <v>3.7773726835755967</v>
+        <v>3.8069226706873556</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.05923752539097756</v>
+        <v>-0.11678064482889591</v>
       </c>
       <c r="AI20" t="n">
-        <v>-0.6446429709006126</v>
+        <v>-0.8292191706830456</v>
       </c>
       <c r="AJ20" t="n">
         <v>0.0</v>
@@ -2805,16 +2805,16 @@
         <v>5</v>
       </c>
       <c r="AM20" t="n">
-        <v>-17.734046837896074</v>
+        <v>-25.0</v>
       </c>
       <c r="AN20" t="n">
-        <v>1.3783079250479218</v>
+        <v>1.341418302035496</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.03509110058603006</v>
+        <v>0.03481991747385149</v>
       </c>
       <c r="AP20" t="n">
-        <v>39.27799077343938</v>
+        <v>38.52445379983605</v>
       </c>
     </row>
     <row r="21">
@@ -2825,7 +2825,7 @@
         <v>15.524949999999997</v>
       </c>
       <c r="C21" t="n">
-        <v>1.3880002079098135</v>
+        <v>1.3883627957864186</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -2837,13 +2837,13 @@
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>11.274427679875984</v>
+        <v>11.401150909712534</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7757148697373356</v>
+        <v>0.7844350566724342</v>
       </c>
       <c r="I21" t="n">
-        <v>2.6576678008534786</v>
+        <v>2.687543933101249</v>
       </c>
       <c r="J21" t="s">
         <v>5</v>
@@ -2859,7 +2859,7 @@
         <v>0.0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.032603692512529064</v>
+        <v>0.03260401726789672</v>
       </c>
       <c r="P21" t="n">
         <v>0.30177773274106534</v>
@@ -2868,37 +2868,37 @@
         <v>5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.3235774483996714</v>
+        <v>1.323923207091783</v>
       </c>
       <c r="S21" t="n">
-        <v>0.41795611641116176</v>
+        <v>0.41806529926279246</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.23833659154372866</v>
+        <v>-0.47628215450512074</v>
       </c>
       <c r="U21" t="s">
         <v>5</v>
       </c>
       <c r="V21" t="n">
-        <v>0.7607451364283053</v>
+        <v>0.7689559597619667</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1516588162036439</v>
+        <v>0.15506479317768307</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.7373562301314196</v>
+        <v>-0.7455155837633568</v>
       </c>
       <c r="Y21" t="s">
         <v>5</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.008726638247146173</v>
+        <v>0.00872672517050957</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.031414113871872776</v>
+        <v>0.03141442677821294</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.31077506476889327</v>
+        <v>0.3107751543885543</v>
       </c>
       <c r="AC21" t="s">
         <v>5</v>
@@ -2907,19 +2907,19 @@
         <v>5</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.07243847322516461</v>
+        <v>-0.16550700011656644</v>
       </c>
       <c r="AF21" t="n">
-        <v>-0.664917756906255</v>
+        <v>-0.9110225838799232</v>
       </c>
       <c r="AG21" t="n">
-        <v>4.045668008763292</v>
+        <v>4.075906728887667</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.08243454345746618</v>
+        <v>-0.09867336127951007</v>
       </c>
       <c r="AI21" t="n">
-        <v>-0.6932803262798695</v>
+        <v>-0.8831084179519443</v>
       </c>
       <c r="AJ21" t="n">
         <v>0.0</v>
@@ -2931,16 +2931,16 @@
         <v>5</v>
       </c>
       <c r="AM21" t="n">
-        <v>-24.985773832867828</v>
+        <v>-25.0</v>
       </c>
       <c r="AN21" t="n">
-        <v>1.405384159756161</v>
+        <v>1.3675543714408007</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.03514307194817555</v>
+        <v>0.03486873767156221</v>
       </c>
       <c r="AP21" t="n">
-        <v>39.990361736977334</v>
+        <v>39.22007112279642</v>
       </c>
     </row>
     <row r="22">
@@ -2951,7 +2951,7 @@
         <v>16.553999999999995</v>
       </c>
       <c r="C22" t="n">
-        <v>1.396375148481492</v>
+        <v>1.3964058951819613</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -2963,13 +2963,13 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>12.376346739394979</v>
+        <v>12.500061854653527</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8515735314108819</v>
+        <v>0.8600946993237336</v>
       </c>
       <c r="I22" t="n">
-        <v>2.917566289861286</v>
+        <v>2.946760565324022</v>
       </c>
       <c r="J22" t="s">
         <v>5</v>
@@ -2985,7 +2985,7 @@
         <v>0.0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.03640719848571143</v>
+        <v>0.03640752324107908</v>
       </c>
       <c r="P22" t="n">
         <v>0.32319427452118943</v>
@@ -2994,37 +2994,37 @@
         <v>5</v>
       </c>
       <c r="R22" t="n">
-        <v>1.3237974071728464</v>
+        <v>1.323826555788392</v>
       </c>
       <c r="S22" t="n">
-        <v>0.44432418351824826</v>
+        <v>0.44433396706574035</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.2376372121984519</v>
+        <v>-0.4827727750645606</v>
       </c>
       <c r="U22" t="s">
         <v>5</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8317836810190673</v>
+        <v>0.839706819723581</v>
       </c>
       <c r="W22" t="n">
-        <v>0.18251955344557136</v>
+        <v>0.18615947119202203</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.8081079466983095</v>
+        <v>-0.8160216195802866</v>
       </c>
       <c r="Y22" t="s">
         <v>5</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.010373098389069229</v>
+        <v>0.010373190918006392</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.03489817948530665</v>
+        <v>0.03489849078009396</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.3332051394348852</v>
+        <v>0.3332052287326684</v>
       </c>
       <c r="AC22" t="s">
         <v>5</v>
@@ -3033,19 +3033,19 @@
         <v>5</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.09556792723643331</v>
+        <v>-0.14956754633189223</v>
       </c>
       <c r="AF22" t="n">
-        <v>-0.7125400194618763</v>
+        <v>-0.9655891659121789</v>
       </c>
       <c r="AG22" t="n">
-        <v>4.313941438342778</v>
+        <v>4.343166460505984</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.1075285925723896</v>
+        <v>-0.07674088433833147</v>
       </c>
       <c r="AI22" t="n">
-        <v>-0.7440449388384923</v>
+        <v>-0.9368355836620651</v>
       </c>
       <c r="AJ22" t="n">
         <v>0.0</v>
@@ -3060,13 +3060,13 @@
         <v>-25.0</v>
       </c>
       <c r="AN22" t="n">
-        <v>1.4190509806870577</v>
+        <v>1.3802226328985716</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.03516968861971549</v>
+        <v>0.034892739986935414</v>
       </c>
       <c r="AP22" t="n">
-        <v>40.34869333166525</v>
+        <v>39.55615504587362</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/CS300/Aerdoynamic Comparison Results.xlsx
+++ b/JPADSandBox_v2/out/CS300/Aerdoynamic Comparison Results.xlsx
@@ -443,13 +443,13 @@
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.9280203589749405</v>
+        <v>-7.9280203589749405</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.27025945540979734</v>
+        <v>-0.5454713236907698</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.9259328144141732</v>
+        <v>-0.1150300205095012</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
@@ -477,7 +477,7 @@
         <v>-0.021578709467619212</v>
       </c>
       <c r="S2" t="n">
-        <v>7.637264351736376E-4</v>
+        <v>-7.637264351736376E-4</v>
       </c>
       <c r="T2" t="n">
         <v>-0.0690195804261403</v>
@@ -486,13 +486,13 @@
         <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.2696245880638797</v>
+        <v>-0.540257778532472</v>
       </c>
       <c r="W2" t="n">
-        <v>0.018513636859985798</v>
+        <v>-0.07523627917513526</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2531478866456735</v>
+        <v>0.5029366684701173</v>
       </c>
       <c r="Y2" t="s">
         <v>5</v>
@@ -516,16 +516,16 @@
         <v>-0.1711999536006626</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0819479330450109</v>
+        <v>0.3317367148694547</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.947525034780678</v>
+        <v>-1.8904252540206874</v>
       </c>
       <c r="AH2" t="n">
         <v>-0.18314874325763963</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.08711071215215771</v>
+        <v>0.36232258043313015</v>
       </c>
       <c r="AJ2" t="n">
         <v>0.0</v>
@@ -537,7 +537,7 @@
         <v>5</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.8808754170389337</v>
+        <v>5.0</v>
       </c>
       <c r="AN2" t="n">
         <v>-0.060214972431027525</v>
@@ -569,13 +569,13 @@
         <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.2357372102649924</v>
+        <v>-7.235737210264993</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.2226283207258226</v>
+        <v>-0.49784018900679505</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7627443312404796</v>
+        <v>-0.10498547708141348</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
@@ -603,7 +603,7 @@
         <v>0.06510338758521164</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.0011340537987376545</v>
+        <v>0.0011340537987376545</v>
       </c>
       <c r="T3" t="n">
         <v>-0.0884209179700157</v>
@@ -612,13 +612,13 @@
         <v>5</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.2222733960394789</v>
+        <v>-0.49387555601325084</v>
       </c>
       <c r="W3" t="n">
-        <v>0.012566089378828244</v>
+        <v>-0.06270397884443799</v>
       </c>
       <c r="X3" t="n">
-        <v>0.20899498053106727</v>
+        <v>0.4604438033377452</v>
       </c>
       <c r="Y3" t="s">
         <v>5</v>
@@ -642,16 +642,16 @@
         <v>-0.16925874111779904</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.03973623941326822</v>
+        <v>0.29118506221994617</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.6976310672070377</v>
+        <v>-1.6405312864470474</v>
       </c>
       <c r="AH3" t="n">
         <v>-0.18103445706314328</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.04159386366267931</v>
+        <v>0.3168057319436518</v>
       </c>
       <c r="AJ3" t="n">
         <v>0.0</v>
@@ -663,7 +663,7 @@
         <v>5</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.8970103728573111</v>
+        <v>5.0</v>
       </c>
       <c r="AN3" t="n">
         <v>0.026936376625323576</v>
@@ -695,13 +695,13 @@
         <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.529793600354413</v>
+        <v>-6.529793600354413</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.17405730577969644</v>
+        <v>-0.44926917406066885</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5963357351015374</v>
+        <v>-0.09474272993273378</v>
       </c>
       <c r="J4" t="s">
         <v>5</v>
@@ -729,7 +729,7 @@
         <v>0.151818726068285</v>
       </c>
       <c r="S4" t="n">
-        <v>8.240681747507752E-5</v>
+        <v>-8.240681747507752E-5</v>
       </c>
       <c r="T4" t="n">
         <v>-0.1085610659129002</v>
@@ -738,13 +738,13 @@
         <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.17388767032806773</v>
+        <v>-0.4463547002715306</v>
       </c>
       <c r="W4" t="n">
-        <v>0.007682695045619108</v>
+        <v>-0.051090824094621894</v>
       </c>
       <c r="X4" t="n">
-        <v>0.16374254811018957</v>
+        <v>0.4167695149458502</v>
       </c>
       <c r="Y4" t="s">
         <v>5</v>
@@ -768,16 +768,16 @@
         <v>-0.1680396667020492</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.004297118591859626</v>
+        <v>0.24872984824380098</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.44451698666814876</v>
+        <v>-1.3874172059081584</v>
       </c>
       <c r="AH4" t="n">
         <v>-0.17916762764769092</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.005110321867994483</v>
+        <v>0.2701015464129779</v>
       </c>
       <c r="AJ4" t="n">
         <v>0.0</v>
@@ -789,7 +789,7 @@
         <v>5</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.11020884622323956</v>
+        <v>5.0</v>
       </c>
       <c r="AN4" t="n">
         <v>0.11403554152985523</v>
@@ -821,13 +821,13 @@
         <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.8306802210441493</v>
+        <v>-5.830680221044149</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.12595623096464598</v>
+        <v>-0.4011680992456184</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4315371954452194</v>
+        <v>-0.08459908464435004</v>
       </c>
       <c r="J5" t="s">
         <v>5</v>
@@ -855,7 +855,7 @@
         <v>0.2384834028228035</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004413187826001036</v>
+        <v>-0.004413187826001036</v>
       </c>
       <c r="T5" t="n">
         <v>-0.1294211690717195</v>
@@ -864,13 +864,13 @@
         <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.12589194259276917</v>
+        <v>-0.3990926374287131</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0040237928672030975</v>
+        <v>-0.04075427097294348</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1187209519130091</v>
+        <v>0.37319626696181873</v>
       </c>
       <c r="Y5" t="s">
         <v>5</v>
@@ -894,16 +894,16 @@
         <v>-0.1675186210279093</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.04879766911490019</v>
+        <v>0.20567764593390944</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0.19301296261188414</v>
+        <v>-1.1359131818518935</v>
       </c>
       <c r="AH5" t="n">
         <v>-0.17752060106853024</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0.05156437010388426</v>
+        <v>0.22364749817708818</v>
       </c>
       <c r="AJ5" t="n">
         <v>0.0</v>
@@ -915,7 +915,7 @@
         <v>5</v>
       </c>
       <c r="AM5" t="n">
-        <v>-1.112033621789732</v>
+        <v>4.856701399228617</v>
       </c>
       <c r="AN5" t="n">
         <v>0.20108835399812025</v>
@@ -947,13 +947,13 @@
         <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.111893939030974</v>
+        <v>-5.111893939030974</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.07650160207275102</v>
+        <v>-0.35171347035372347</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.26210125972098586</v>
+        <v>-0.07416999932189332</v>
       </c>
       <c r="J6" t="s">
         <v>5</v>
@@ -981,7 +981,7 @@
         <v>0.32501353157690566</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01185635962461932</v>
+        <v>-0.01185635962461932</v>
       </c>
       <c r="T6" t="n">
         <v>-0.15098191908276848</v>
@@ -990,13 +990,13 @@
         <v>5</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.07648719723517439</v>
+        <v>-0.35031456186429993</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0014845129858219973</v>
+        <v>-0.03133804355863811</v>
       </c>
       <c r="X6" t="n">
-        <v>0.07223895552448603</v>
+        <v>0.32808412992545505</v>
       </c>
       <c r="Y6" t="s">
         <v>5</v>
@@ -1020,16 +1020,16 @@
         <v>-0.16767116193223522</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.09543220640774919</v>
+        <v>0.16041296799321983</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.06312845751229612</v>
+        <v>-0.8797717617277135</v>
       </c>
       <c r="AH6" t="n">
         <v>-0.17606563359087765</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0.09956403151812664</v>
+        <v>0.17564783676284582</v>
       </c>
       <c r="AJ6" t="n">
         <v>0.0</v>
@@ -1041,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="AM6" t="n">
-        <v>-2.1522961265244307</v>
+        <v>3.810546412493183</v>
       </c>
       <c r="AN6" t="n">
         <v>0.2881006646811841</v>
@@ -1073,13 +1073,13 @@
         <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3852033426726069</v>
+        <v>-4.385203342672607</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.026503132901250948</v>
+        <v>-0.30171500118222344</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.09080207906449642</v>
+        <v>-0.0636262279365771</v>
       </c>
       <c r="J7" t="s">
         <v>5</v>
@@ -1107,7 +1107,7 @@
         <v>0.41132528804581237</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02240798426093235</v>
+        <v>-0.02240798426093235</v>
       </c>
       <c r="T7" t="n">
         <v>-0.17322350077611431</v>
@@ -1116,13 +1116,13 @@
         <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.026502533937675876</v>
+        <v>-0.3008317400797772</v>
       </c>
       <c r="W7" t="n">
-        <v>1.7818098582323845E-4</v>
+        <v>-0.023069592518344315</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02506856197458418</v>
+        <v>0.2821753540931966</v>
       </c>
       <c r="Y7" t="s">
         <v>5</v>
@@ -1146,16 +1146,16 @@
         <v>-0.16847246219608042</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.14340390022149624</v>
+        <v>0.11370289189711617</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.32113312256873217</v>
+        <v>-0.6217670966712775</v>
       </c>
       <c r="AH7" t="n">
         <v>-0.17477484046129102</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0.14827170756004007</v>
+        <v>0.12694016072093242</v>
       </c>
       <c r="AJ7" t="n">
         <v>0.0</v>
@@ -1167,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="AM7" t="n">
-        <v>-3.213882326972552</v>
+        <v>2.7489602120450627</v>
       </c>
       <c r="AN7" t="n">
         <v>0.3750783539683927</v>
@@ -1199,13 +1199,13 @@
         <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3497814670181376</v>
+        <v>-3.650218532981862</v>
       </c>
       <c r="H8" t="n">
-        <v>0.024066002757030247</v>
+        <v>-0.25114586552394214</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08245225548437353</v>
+        <v>-0.05296211332728644</v>
       </c>
       <c r="J8" t="s">
         <v>5</v>
@@ -1233,7 +1233,7 @@
         <v>0.497334955005984</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03606211719840584</v>
+        <v>-0.03606211719840584</v>
       </c>
       <c r="T8" t="n">
         <v>-0.19612569355224438</v>
@@ -1242,13 +1242,13 @@
         <v>5</v>
       </c>
       <c r="V8" t="n">
-        <v>0.024065554299890563</v>
+        <v>-0.25063636855111304</v>
       </c>
       <c r="W8" t="n">
-        <v>1.4691814185541406E-4</v>
+        <v>-0.015989262937379595</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.022798368739826002</v>
+        <v>0.23545794311937954</v>
       </c>
       <c r="Y8" t="s">
         <v>5</v>
@@ -1272,16 +1272,16 @@
         <v>-0.16989741261603247</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.19269578135585846</v>
+        <v>0.06556053050334708</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.5810929415175489</v>
+        <v>-0.36180727772246063</v>
       </c>
       <c r="AH8" t="n">
         <v>-0.1736203087725402</v>
       </c>
       <c r="AI8" t="n">
-        <v>-0.19768631152957045</v>
+        <v>0.07752555675140194</v>
       </c>
       <c r="AJ8" t="n">
         <v>0.0</v>
@@ -1293,7 +1293,7 @@
         <v>5</v>
       </c>
       <c r="AM8" t="n">
-        <v>-4.290876056452108</v>
+        <v>1.6719664825655043</v>
       </c>
       <c r="AN8" t="n">
         <v>0.46202730818621596</v>
@@ -1325,13 +1325,13 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0930141278802603</v>
+        <v>-2.9069858721197397</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07520261504785604</v>
+        <v>-0.20000925323311639</v>
       </c>
       <c r="I9" t="n">
-        <v>0.25765081520268135</v>
+        <v>-0.04217832817649313</v>
       </c>
       <c r="J9" t="s">
         <v>5</v>
@@ -1359,7 +1359,7 @@
         <v>0.5829589673229293</v>
       </c>
       <c r="S9" t="n">
-        <v>0.05281081005348567</v>
+        <v>-0.05281081005348567</v>
       </c>
       <c r="T9" t="n">
         <v>-0.21966782868780457</v>
@@ -1368,13 +1368,13 @@
         <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>0.07518893158358576</v>
+        <v>-0.19975187755430507</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0014345303603909357</v>
+        <v>-0.010143411280175901</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.07134021615692311</v>
+        <v>0.1879487852638076</v>
       </c>
       <c r="Y9" t="s">
         <v>5</v>
@@ -1398,16 +1398,16 @@
         <v>-0.17192058140591007</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.2432607975628332</v>
+        <v>0.01602820385789752</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.8429969856358033</v>
+        <v>-0.09990323360420628</v>
       </c>
       <c r="AH9" t="n">
         <v>-0.1725740578481055</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.24777667289596156</v>
+        <v>0.02743519538501088</v>
       </c>
       <c r="AJ9" t="n">
         <v>0.0</v>
@@ -1419,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="AM9" t="n">
-        <v>-5.395767088853374</v>
+        <v>0.5916655168488987</v>
       </c>
       <c r="AN9" t="n">
         <v>0.5489534279524391</v>
@@ -1451,13 +1451,13 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>1.8449583123346898</v>
+        <v>-2.1550416876653102</v>
       </c>
       <c r="H10" t="n">
-        <v>0.12693860600953497</v>
+        <v>-0.14827326227143747</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4349028992972643</v>
+        <v>-0.03126814492224922</v>
       </c>
       <c r="J10" t="s">
         <v>5</v>
@@ -1485,7 +1485,7 @@
         <v>0.6681139569123298</v>
       </c>
       <c r="S10" t="n">
-        <v>0.07264411430264443</v>
+        <v>-0.07264411430264443</v>
       </c>
       <c r="T10" t="n">
         <v>-0.2438288126799229</v>
@@ -1494,13 +1494,13 @@
         <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>0.126872801742948</v>
+        <v>-0.1481683931249734</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0040867925734688094</v>
+        <v>-0.005575624034833541</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.12056714785160964</v>
+        <v>0.1396335504434452</v>
       </c>
       <c r="Y10" t="s">
         <v>5</v>
@@ -1524,16 +1524,16 @@
         <v>-0.17451624013617764</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.2950833879877873</v>
+        <v>-0.03488268969273245</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.106954554130333</v>
+        <v>0.16405433489032328</v>
       </c>
       <c r="AH10" t="n">
         <v>-0.17160806976271492</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.2985466757722499</v>
+        <v>-0.02333480749127745</v>
       </c>
       <c r="AJ10" t="n">
         <v>0.0</v>
@@ -1545,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="AM10" t="n">
-        <v>-6.540389063697859</v>
+        <v>-0.5032368365212847</v>
       </c>
       <c r="AN10" t="n">
         <v>0.6358626217399345</v>
@@ -1577,13 +1577,13 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>2.6058167845759943</v>
+        <v>-1.3941832154240057</v>
       </c>
       <c r="H11" t="n">
-        <v>0.17928792642026892</v>
+        <v>-0.09592394186070352</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6142563043690004</v>
+        <v>-0.02022862159816164</v>
       </c>
       <c r="J11" t="s">
         <v>5</v>
@@ -1611,7 +1611,7 @@
         <v>0.7527167976141677</v>
       </c>
       <c r="S11" t="n">
-        <v>0.09555008595779313</v>
+        <v>-0.09555008595779313</v>
       </c>
       <c r="T11" t="n">
         <v>-0.2685871361962574</v>
@@ -1620,13 +1620,13 @@
         <v>5</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1791025354072324</v>
+        <v>-0.09589554501983515</v>
       </c>
       <c r="W11" t="n">
-        <v>0.008151218975148858</v>
+        <v>-0.0023338953370704322</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.1704707573992312</v>
+        <v>0.09051586953003994</v>
       </c>
       <c r="Y11" t="s">
         <v>5</v>
@@ -1650,16 +1650,16 @@
         <v>-0.17765837586000804</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.3481291332592393</v>
+        <v>-0.0871425063299681</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.3730134436020158</v>
+        <v>0.4301132243620063</v>
       </c>
       <c r="AH11" t="n">
         <v>-0.1706943049268742</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0.3499822313471431</v>
+        <v>-0.07477036306617069</v>
       </c>
       <c r="AJ11" t="n">
         <v>0.0</v>
@@ -1671,7 +1671,7 @@
         <v>5</v>
       </c>
       <c r="AM11" t="n">
-        <v>-7.7000160848508195</v>
+        <v>-1.6124924531317735</v>
       </c>
       <c r="AN11" t="n">
         <v>0.7227608025901664</v>
@@ -1703,13 +1703,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>3.3763149517557816</v>
+        <v>-0.6236850482442184</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2323004864444225</v>
+        <v>-0.042911381836549946</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7958820270584622</v>
+        <v>-0.00904923305472915</v>
       </c>
       <c r="J12" t="s">
         <v>5</v>
@@ -1737,7 +1737,7 @@
         <v>0.8364515655188164</v>
       </c>
       <c r="S12" t="n">
-        <v>0.12148093949685587</v>
+        <v>-0.12148093949685587</v>
       </c>
       <c r="T12" t="n">
         <v>-0.2938604950635706</v>
@@ -1746,13 +1746,13 @@
         <v>5</v>
       </c>
       <c r="V12" t="n">
-        <v>0.23189727292463638</v>
+        <v>-0.042908839555170275</v>
       </c>
       <c r="W12" t="n">
-        <v>0.013681038426670266</v>
+        <v>-4.670965112731937E-4</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.2210752582825755</v>
+        <v>0.04056696678888576</v>
       </c>
       <c r="Y12" t="s">
         <v>5</v>
@@ -1776,16 +1776,16 @@
         <v>-0.18126031592477926</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.4023355742073547</v>
+        <v>-0.1406933491358935</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.641109120874034</v>
+        <v>0.6982089016340245</v>
       </c>
       <c r="AH12" t="n">
         <v>-0.16974650726821014</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.40204699371263264</v>
+        <v>-0.1268351254316602</v>
       </c>
       <c r="AJ12" t="n">
         <v>0.0</v>
@@ -1797,7 +1797,7 @@
         <v>5</v>
       </c>
       <c r="AM12" t="n">
-        <v>-8.923784578736104</v>
+        <v>-2.746670962737509</v>
       </c>
       <c r="AN12" t="n">
         <v>0.8094306305288094</v>
@@ -1829,13 +1829,13 @@
         <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>4.159705163094847</v>
+        <v>0.1597051630948476</v>
       </c>
       <c r="H13" t="n">
-        <v>0.286200057358335</v>
+        <v>0.010988189077362605</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9805467275639826</v>
+        <v>0.0023172100164294772</v>
       </c>
       <c r="J13" t="s">
         <v>5</v>
@@ -1863,7 +1863,7 @@
         <v>0.918068149380574</v>
       </c>
       <c r="S13" t="n">
-        <v>0.150216852807161</v>
+        <v>-0.150216852807161</v>
       </c>
       <c r="T13" t="n">
         <v>-0.3193159920646322</v>
@@ -1872,13 +1872,13 @@
         <v>5</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2854461312414991</v>
+        <v>0.010988146391064258</v>
       </c>
       <c r="W13" t="n">
-        <v>0.020760033506117458</v>
+        <v>-3.0628229011327573E-5</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.27256923895403484</v>
+        <v>-0.010405434399525617</v>
       </c>
       <c r="Y13" t="s">
         <v>5</v>
@@ -1902,16 +1902,16 @@
         <v>-0.18498493428940024</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.45755417324343517</v>
+        <v>-0.19539036868892587</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.9108231541030842</v>
+        <v>0.9679229348630748</v>
       </c>
       <c r="AH13" t="n">
         <v>-0.16844230774409272</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.4546423651024277</v>
+        <v>-0.17943049682145532</v>
       </c>
       <c r="AJ13" t="n">
         <v>0.0</v>
@@ -1923,7 +1923,7 @@
         <v>5</v>
       </c>
       <c r="AM13" t="n">
-        <v>-10.21915645830262</v>
+        <v>-3.8929896749422195</v>
       </c>
       <c r="AN13" t="n">
         <v>0.8947549953053396</v>
@@ -1955,13 +1955,13 @@
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>4.9583211303676045</v>
+        <v>0.9583211303676045</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3411472054563729</v>
+        <v>0.06593533717540044</v>
       </c>
       <c r="I14" t="n">
-        <v>1.1688005202214966</v>
+        <v>0.013904568138007016</v>
       </c>
       <c r="J14" t="s">
         <v>5</v>
@@ -1989,7 +1989,7 @@
         <v>0.9960957743012036</v>
       </c>
       <c r="S14" t="n">
-        <v>0.18140922979339358</v>
+        <v>-0.18140922979339358</v>
       </c>
       <c r="T14" t="n">
         <v>-0.34454083986921225</v>
@@ -1998,13 +1998,13 @@
         <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>0.33987057616069494</v>
+        <v>0.06592611454138846</v>
       </c>
       <c r="W14" t="n">
-        <v>0.02948571265697924</v>
+        <v>-0.0011027737344862433</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.3250788090160802</v>
+        <v>-0.06253399012663963</v>
       </c>
       <c r="Y14" t="s">
         <v>5</v>
@@ -2028,16 +2028,16 @@
         <v>-0.18841535970899342</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.5134941687250736</v>
+        <v>-0.25094934983563305</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.1812806929828925</v>
+        <v>1.2383804737428832</v>
       </c>
       <c r="AH14" t="n">
         <v>-0.16639666793409763</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.5075438733904705</v>
+        <v>-0.23233200510949809</v>
       </c>
       <c r="AJ14" t="n">
         <v>0.0</v>
@@ -2049,7 +2049,7 @@
         <v>5</v>
       </c>
       <c r="AM14" t="n">
-        <v>-11.52206818631604</v>
+        <v>-5.047563324011453</v>
       </c>
       <c r="AN14" t="n">
         <v>0.9773901299051326</v>
@@ -2081,13 +2081,13 @@
         <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>5.779255531425438</v>
+        <v>1.7792555314254388</v>
       </c>
       <c r="H15" t="n">
-        <v>0.39762992801918473</v>
+        <v>0.12241805973821238</v>
       </c>
       <c r="I15" t="n">
-        <v>1.3623153269062709</v>
+        <v>0.025815751096024478</v>
       </c>
       <c r="J15" t="s">
         <v>5</v>
@@ -2115,7 +2115,7 @@
         <v>1.0690852407645417</v>
       </c>
       <c r="S15" t="n">
-        <v>0.21460730128753064</v>
+        <v>-0.21460730128753064</v>
       </c>
       <c r="T15" t="n">
         <v>-0.36910311167315035</v>
@@ -2124,13 +2124,13 @@
         <v>5</v>
       </c>
       <c r="V15" t="n">
-        <v>0.39560886734126244</v>
+        <v>0.1223590380021457</v>
       </c>
       <c r="W15" t="n">
-        <v>0.04003977694125503</v>
+        <v>-0.003800943206363139</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.37903952275519837</v>
+        <v>-0.1162618191657273</v>
       </c>
       <c r="Y15" t="s">
         <v>5</v>
@@ -2154,16 +2154,16 @@
         <v>-0.1911157323825424</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.5701552551377408</v>
+        <v>-0.30737755154826973</v>
       </c>
       <c r="AG15" t="n">
-        <v>2.4527278845130214</v>
+        <v>1.509827665273012</v>
       </c>
       <c r="AH15" t="n">
         <v>-0.1632217133529227</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.5608516413721074</v>
+        <v>-0.2856397730911351</v>
       </c>
       <c r="AJ15" t="n">
         <v>0.0</v>
@@ -2175,7 +2175,7 @@
         <v>5</v>
       </c>
       <c r="AM15" t="n">
-        <v>-13.210437628947169</v>
+        <v>-6.249399825978452</v>
       </c>
       <c r="AN15" t="n">
         <v>1.055992055154771</v>
@@ -2207,13 +2207,13 @@
         <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>6.622335057547261</v>
+        <v>2.622335057547261</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4556363008925407</v>
+        <v>0.18042443261156826</v>
       </c>
       <c r="I16" t="n">
-        <v>1.5610502944105284</v>
+        <v>0.03804824430237047</v>
       </c>
       <c r="J16" t="s">
         <v>5</v>
@@ -2241,7 +2241,7 @@
         <v>1.1356134746661697</v>
       </c>
       <c r="S16" t="n">
-        <v>0.2492590487710063</v>
+        <v>-0.2492590487710063</v>
       </c>
       <c r="T16" t="n">
         <v>-0.39255298187842425</v>
@@ -2250,13 +2250,13 @@
         <v>5</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4525962432276187</v>
+        <v>0.18023549403588784</v>
       </c>
       <c r="W16" t="n">
-        <v>0.05254597327373511</v>
+        <v>-0.008254851473271521</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.43440419768768385</v>
+        <v>-0.17155501041591847</v>
       </c>
       <c r="Y16" t="s">
         <v>5</v>
@@ -2280,16 +2280,16 @@
         <v>-0.19263245140470492</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.6270366490923889</v>
+        <v>-0.3641874618206234</v>
       </c>
       <c r="AG16" t="n">
-        <v>2.7236972903803274</v>
+        <v>1.780797071140318</v>
       </c>
       <c r="AH16" t="n">
         <v>-0.1585279009651198</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.6141642018576605</v>
+        <v>-0.3389523335766881</v>
       </c>
       <c r="AJ16" t="n">
         <v>0.0</v>
@@ -2301,7 +2301,7 @@
         <v>5</v>
       </c>
       <c r="AM16" t="n">
-        <v>-14.945431321916939</v>
+        <v>-7.4513443761035365</v>
       </c>
       <c r="AN16" t="n">
         <v>1.1292163335181766</v>
@@ -2333,13 +2333,13 @@
         <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>7.4994812355122775</v>
+        <v>3.4994812355122784</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5159865604908573</v>
+        <v>0.24077469220988496</v>
       </c>
       <c r="I17" t="n">
-        <v>1.767815625287716</v>
+        <v>0.05077502075759545</v>
       </c>
       <c r="J17" t="s">
         <v>5</v>
@@ -2367,7 +2367,7 @@
         <v>1.1942880448402735</v>
       </c>
       <c r="S17" t="n">
-        <v>0.28471229102475626</v>
+        <v>-0.28471229102475626</v>
       </c>
       <c r="T17" t="n">
         <v>-0.4144239977214461</v>
@@ -2376,13 +2376,13 @@
         <v>5</v>
       </c>
       <c r="V17" t="n">
-        <v>0.511572833710366</v>
+        <v>0.24032573195056334</v>
       </c>
       <c r="W17" t="n">
-        <v>0.06734512912402352</v>
+        <v>-0.014696767372140426</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.4919122295245814</v>
+        <v>-0.22916911936464165</v>
       </c>
       <c r="Y17" t="s">
         <v>5</v>
@@ -2406,16 +2406,16 @@
         <v>-0.19249545392483036</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.6844076834494118</v>
+        <v>-0.42166457328947204</v>
       </c>
       <c r="AG17" t="n">
-        <v>2.995571717803232</v>
+        <v>2.052671498563223</v>
       </c>
       <c r="AH17" t="n">
         <v>-0.15192519262232862</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.667911753113186</v>
+        <v>-0.3926998848322136</v>
       </c>
       <c r="AJ17" t="n">
         <v>0.0</v>
@@ -2427,7 +2427,7 @@
         <v>5</v>
       </c>
       <c r="AM17" t="n">
-        <v>-22.448444370929778</v>
+        <v>-8.693574549241177</v>
       </c>
       <c r="AN17" t="n">
         <v>1.195717821639954</v>
@@ -2459,13 +2459,13 @@
         <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>8.407810789062083</v>
+        <v>4.407810789062083</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5784823288526733</v>
+        <v>0.30327046057170076</v>
       </c>
       <c r="I18" t="n">
-        <v>1.9819316590837892</v>
+        <v>0.06395424614340534</v>
       </c>
       <c r="J18" t="s">
         <v>5</v>
@@ -2493,7 +2493,7 @@
         <v>1.243751642973883</v>
       </c>
       <c r="S18" t="n">
-        <v>0.3202159326962438</v>
+        <v>-0.3202159326962438</v>
       </c>
       <c r="T18" t="n">
         <v>-0.4342343804624887</v>
@@ -2502,13 +2502,13 @@
         <v>5</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5722650374681123</v>
+        <v>0.30237347277472726</v>
       </c>
       <c r="W18" t="n">
-        <v>0.08458446480549703</v>
+        <v>-0.023307835968248647</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.5513214448860838</v>
+        <v>-0.2888821688850784</v>
       </c>
       <c r="Y18" t="s">
         <v>5</v>
@@ -2532,16 +2532,16 @@
         <v>-0.19021952461039252</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.7415409694964764</v>
+        <v>-0.47910169349547094</v>
       </c>
       <c r="AG18" t="n">
-        <v>3.2662433007630036</v>
+        <v>2.323343081522994</v>
       </c>
       <c r="AH18" t="n">
         <v>-0.1430242331253905</v>
       </c>
       <c r="AI18" t="n">
-        <v>-0.7215065619780637</v>
+        <v>-0.4462946936970913</v>
       </c>
       <c r="AJ18" t="n">
         <v>0.0</v>
@@ -2553,7 +2553,7 @@
         <v>5</v>
       </c>
       <c r="AM18" t="n">
-        <v>-25.0</v>
+        <v>-10.013561583457179</v>
       </c>
       <c r="AN18" t="n">
         <v>1.2541504219134323</v>
@@ -2585,13 +2585,13 @@
         <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>9.359951349564106</v>
+        <v>5.359951349564106</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6439924244831368</v>
+        <v>0.3687805562021643</v>
       </c>
       <c r="I19" t="n">
-        <v>2.206375044894955</v>
+        <v>0.07776913854318176</v>
       </c>
       <c r="J19" t="s">
         <v>5</v>
@@ -2619,7 +2619,7 @@
         <v>1.2826865208238118</v>
       </c>
       <c r="S19" t="n">
-        <v>0.354921373625241</v>
+        <v>-0.354921373625241</v>
       </c>
       <c r="T19" t="n">
         <v>-0.4514883547201898</v>
@@ -2628,13 +2628,13 @@
         <v>5</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6354183623469801</v>
+        <v>0.36716806369957566</v>
       </c>
       <c r="W19" t="n">
-        <v>0.10473656278468604</v>
+        <v>-0.03444868113414527</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.6133913384334652</v>
+        <v>-0.3514823847758598</v>
       </c>
       <c r="Y19" t="s">
         <v>5</v>
@@ -2658,16 +2658,16 @@
         <v>-0.18530563397259814</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.7986969724060632</v>
+        <v>-0.5367880187484579</v>
       </c>
       <c r="AG19" t="n">
-        <v>3.5372596725615013</v>
+        <v>2.594359453321492</v>
       </c>
       <c r="AH19" t="n">
         <v>-0.13143753159612323</v>
       </c>
       <c r="AI19" t="n">
-        <v>-0.77542995607926</v>
+        <v>-0.5002180877982876</v>
       </c>
       <c r="AJ19" t="n">
         <v>0.0</v>
@@ -2679,7 +2679,7 @@
         <v>5</v>
       </c>
       <c r="AM19" t="n">
-        <v>-25.0</v>
+        <v>-11.341641346442284</v>
       </c>
       <c r="AN19" t="n">
         <v>1.3031668333507607</v>
@@ -2711,13 +2711,13 @@
         <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>10.354764571806893</v>
+        <v>6.354764571806893</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7124385258541497</v>
+        <v>0.4372266575731772</v>
       </c>
       <c r="I20" t="n">
-        <v>2.4408774462338516</v>
+        <v>0.09220318136550702</v>
       </c>
       <c r="J20" t="s">
         <v>5</v>
@@ -2745,7 +2745,7 @@
         <v>1.3098188796844974</v>
       </c>
       <c r="S20" t="n">
-        <v>0.3878840776240658</v>
+        <v>-0.3878840776240658</v>
       </c>
       <c r="T20" t="n">
         <v>-0.46567750450818607</v>
@@ -2754,13 +2754,13 @@
         <v>5</v>
       </c>
       <c r="V20" t="n">
-        <v>0.7008355279001367</v>
+        <v>0.4345401686362956</v>
       </c>
       <c r="W20" t="n">
-        <v>0.12805551903049944</v>
+        <v>-0.048394131195343755</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.6779641804180389</v>
+        <v>-0.41684077151693055</v>
       </c>
       <c r="Y20" t="s">
         <v>5</v>
@@ -2784,16 +2784,16 @@
         <v>-0.1772423040755995</v>
       </c>
       <c r="AF20" t="n">
-        <v>-0.8552064844936385</v>
+        <v>-0.5940830755925302</v>
       </c>
       <c r="AG20" t="n">
-        <v>3.8069226706873556</v>
+        <v>2.8640224514473456</v>
       </c>
       <c r="AH20" t="n">
         <v>-0.11678064482889591</v>
       </c>
       <c r="AI20" t="n">
-        <v>-0.8292191706830456</v>
+        <v>-0.5540073024020731</v>
       </c>
       <c r="AJ20" t="n">
         <v>0.0</v>
@@ -2805,7 +2805,7 @@
         <v>5</v>
       </c>
       <c r="AM20" t="n">
-        <v>-25.0</v>
+        <v>-12.98769678068544</v>
       </c>
       <c r="AN20" t="n">
         <v>1.341418302035496</v>
@@ -2837,13 +2837,13 @@
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>11.401150909712534</v>
+        <v>7.401150909712534</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7844350566724342</v>
+        <v>0.5092211423228513</v>
       </c>
       <c r="I21" t="n">
-        <v>2.687543933101249</v>
+        <v>0.10738551396053968</v>
       </c>
       <c r="J21" t="s">
         <v>5</v>
@@ -2871,7 +2871,7 @@
         <v>1.323923207091783</v>
       </c>
       <c r="S21" t="n">
-        <v>0.41806529926279246</v>
+        <v>-0.41806529926279246</v>
       </c>
       <c r="T21" t="n">
         <v>-0.47628215450512074</v>
@@ -2880,13 +2880,13 @@
         <v>5</v>
       </c>
       <c r="V21" t="n">
-        <v>0.7689559597619667</v>
+        <v>0.5049786045899713</v>
       </c>
       <c r="W21" t="n">
-        <v>0.15506479317768307</v>
+        <v>-0.0655955844165974</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.7455155837633568</v>
+        <v>-0.48547143017902344</v>
       </c>
       <c r="Y21" t="s">
         <v>5</v>
@@ -2910,16 +2910,16 @@
         <v>-0.16550700011656644</v>
       </c>
       <c r="AF21" t="n">
-        <v>-0.9110225838799232</v>
+        <v>-0.6509784302955899</v>
       </c>
       <c r="AG21" t="n">
-        <v>4.075906728887667</v>
+        <v>3.132999499635505</v>
       </c>
       <c r="AH21" t="n">
         <v>-0.09867336127951007</v>
       </c>
       <c r="AI21" t="n">
-        <v>-0.8831084179519443</v>
+        <v>-0.6078945036023614</v>
       </c>
       <c r="AJ21" t="n">
         <v>0.0</v>
@@ -2931,7 +2931,7 @@
         <v>5</v>
       </c>
       <c r="AM21" t="n">
-        <v>-25.0</v>
+        <v>-14.741391470319204</v>
       </c>
       <c r="AN21" t="n">
         <v>1.3675543714408007</v>
@@ -2963,13 +2963,13 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>12.500061854653527</v>
+        <v>8.500061854653527</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8600946993237336</v>
+        <v>0.5848294758807562</v>
       </c>
       <c r="I22" t="n">
-        <v>2.946760565324022</v>
+        <v>0.12332994180141642</v>
       </c>
       <c r="J22" t="s">
         <v>5</v>
@@ -2997,7 +2997,7 @@
         <v>1.323826555788392</v>
       </c>
       <c r="S22" t="n">
-        <v>0.44433396706574035</v>
+        <v>-0.44433396706574035</v>
       </c>
       <c r="T22" t="n">
         <v>-0.4827727750645606</v>
@@ -3006,13 +3006,13 @@
         <v>5</v>
       </c>
       <c r="V22" t="n">
-        <v>0.839706819723581</v>
+        <v>0.5784055356860005</v>
       </c>
       <c r="W22" t="n">
-        <v>0.18615947119202203</v>
+        <v>-0.08644392486896191</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.8160216195802866</v>
+        <v>-0.5573452370458353</v>
       </c>
       <c r="Y22" t="s">
         <v>5</v>
@@ -3036,16 +3036,16 @@
         <v>-0.14956754633189223</v>
       </c>
       <c r="AF22" t="n">
-        <v>-0.9655891659121789</v>
+        <v>-0.7069127833777276</v>
       </c>
       <c r="AG22" t="n">
-        <v>4.343166460505984</v>
+        <v>3.400083441758575</v>
       </c>
       <c r="AH22" t="n">
         <v>-0.07674088433833147</v>
       </c>
       <c r="AI22" t="n">
-        <v>-0.9368355836620651</v>
+        <v>-0.6615703602190877</v>
       </c>
       <c r="AJ22" t="n">
         <v>0.0</v>
@@ -3057,7 +3057,7 @@
         <v>5</v>
       </c>
       <c r="AM22" t="n">
-        <v>-25.0</v>
+        <v>-21.81418705916849</v>
       </c>
       <c r="AN22" t="n">
         <v>1.3802226328985716</v>

--- a/JPADSandBox_v2/out/CS300/Aerdoynamic Comparison Results.xlsx
+++ b/JPADSandBox_v2/out/CS300/Aerdoynamic Comparison Results.xlsx
@@ -522,10 +522,10 @@
         <v>-1.8904252540206874</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.18314874325763963</v>
+        <v>-0.18200911947172416</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.36232258043313015</v>
+        <v>0.3634622042190456</v>
       </c>
       <c r="AJ2" t="n">
         <v>0.0</v>
@@ -540,13 +540,13 @@
         <v>5.0</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.060214972431027525</v>
+        <v>-0.059974646419790154</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.03358167102080408</v>
+        <v>0.03358165110387526</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1.7930904151173397</v>
+        <v>-1.7859350105888387</v>
       </c>
     </row>
     <row r="3">
@@ -648,10 +648,10 @@
         <v>-1.6405312864470474</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.18103445706314328</v>
+        <v>-0.179855521060702</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.3168057319436518</v>
+        <v>0.31798466794609304</v>
       </c>
       <c r="AJ3" t="n">
         <v>0.0</v>
@@ -666,13 +666,13 @@
         <v>5.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.026936376625323576</v>
+        <v>0.02718499287085345</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.03357967118775131</v>
+        <v>0.033579680465720296</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.8021632038835753</v>
+        <v>0.8095667526856057</v>
       </c>
     </row>
     <row r="4">
@@ -774,10 +774,10 @@
         <v>-1.3874172059081584</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.17916762764769092</v>
+        <v>-0.17847722047095801</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.2701015464129779</v>
+        <v>0.27079195358971087</v>
       </c>
       <c r="AJ4" t="n">
         <v>0.0</v>
@@ -792,13 +792,13 @@
         <v>5.0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.11403554152985523</v>
+        <v>0.11418113589614041</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.033588137635552254</v>
+        <v>0.03358816054668617</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.395113559650038</v>
+        <v>3.3994459368334065</v>
       </c>
     </row>
     <row r="5">
@@ -900,10 +900,10 @@
         <v>-1.1359131818518935</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.17752060106853024</v>
+        <v>-0.1778465772415593</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.22364749817708818</v>
+        <v>0.2233215220040591</v>
       </c>
       <c r="AJ5" t="n">
         <v>0.0</v>
@@ -915,16 +915,16 @@
         <v>5</v>
       </c>
       <c r="AM5" t="n">
-        <v>4.856701399228617</v>
+        <v>4.849596732467987</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.20108835399812025</v>
+        <v>0.20101961152855202</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.033607053177041143</v>
+        <v>0.033607034117061105</v>
       </c>
       <c r="AP5" t="n">
-        <v>5.98351640469016</v>
+        <v>5.981474319583038</v>
       </c>
     </row>
     <row r="6">
@@ -1026,10 +1026,10 @@
         <v>-0.8797717617277135</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.17606563359087765</v>
+        <v>-0.17793552058426151</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.17564783676284582</v>
+        <v>0.17377794976946195</v>
       </c>
       <c r="AJ6" t="n">
         <v>0.0</v>
@@ -1041,16 +1041,16 @@
         <v>5</v>
       </c>
       <c r="AM6" t="n">
-        <v>3.810546412493183</v>
+        <v>3.7697921332936257</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.2881006646811841</v>
+        <v>0.28770633938880386</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.03363640344268069</v>
+        <v>0.033636246880734154</v>
       </c>
       <c r="AP6" t="n">
-        <v>8.56514475966886</v>
+        <v>8.553461401592742</v>
       </c>
     </row>
     <row r="7">
@@ -1152,10 +1152,10 @@
         <v>-0.6217670966712775</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.17477484046129102</v>
+        <v>-0.17871549829149863</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.12694016072093242</v>
+        <v>0.12299950289072481</v>
       </c>
       <c r="AJ7" t="n">
         <v>0.0</v>
@@ -1167,16 +1167,16 @@
         <v>5</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.7489602120450627</v>
+        <v>2.6630733803753195</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.3750783539683927</v>
+        <v>0.374247340620225</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.03367617689401299</v>
+        <v>0.03367574752246818</v>
       </c>
       <c r="AP7" t="n">
-        <v>11.137794980376016</v>
+        <v>11.113260080434156</v>
       </c>
     </row>
     <row r="8">
@@ -1278,10 +1278,10 @@
         <v>-0.36180727772246063</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.1736203087725402</v>
+        <v>-0.18015758990058472</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.07752555675140194</v>
+        <v>0.07098827562335741</v>
       </c>
       <c r="AJ8" t="n">
         <v>0.0</v>
@@ -1293,16 +1293,16 @@
         <v>5</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.6719664825655043</v>
+        <v>1.5309282182059158</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.46202730818621596</v>
+        <v>0.4606487140244784</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0337263648232917</v>
+        <v>0.03372548774107696</v>
       </c>
       <c r="AP8" t="n">
-        <v>13.699291655267162</v>
+        <v>13.658771003137119</v>
       </c>
     </row>
     <row r="9">
@@ -1404,10 +1404,10 @@
         <v>-0.09990323360420628</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.1725740578481055</v>
+        <v>-0.18223246754213301</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.02743519538501088</v>
+        <v>0.01777678569098337</v>
       </c>
       <c r="AJ9" t="n">
         <v>0.0</v>
@@ -1419,16 +1419,16 @@
         <v>5</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.5916655168488987</v>
+        <v>0.38337292467449346</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.5489534279524391</v>
+        <v>0.5469166443179194</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.03378696136079595</v>
+        <v>0.03378542228999648</v>
       </c>
       <c r="AP9" t="n">
-        <v>16.24749328862129</v>
+        <v>16.187947559852045</v>
       </c>
     </row>
     <row r="10">
@@ -1530,10 +1530,10 @@
         <v>0.16405433489032328</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.17160806976271492</v>
+        <v>-0.18491042708891078</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.02333480749127745</v>
+        <v>-0.03663716481747331</v>
       </c>
       <c r="AJ10" t="n">
         <v>0.0</v>
@@ -1545,16 +1545,16 @@
         <v>5</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.5032368365212847</v>
+        <v>-0.7901145500662903</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.6358626217399345</v>
+        <v>0.6330573955628669</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.033857963475657116</v>
+        <v>0.033855509011093646</v>
       </c>
       <c r="AP10" t="n">
-        <v>18.780297350048862</v>
+        <v>18.69880010829047</v>
       </c>
     </row>
     <row r="11">
@@ -1656,10 +1656,10 @@
         <v>0.4301132243620063</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0.1706943049268742</v>
+        <v>-0.18816140453281774</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0.07477036306617069</v>
+        <v>-0.09223746267211422</v>
       </c>
       <c r="AJ11" t="n">
         <v>0.0</v>
@@ -1671,16 +1671,16 @@
         <v>5</v>
       </c>
       <c r="AM11" t="n">
-        <v>-1.6124924531317735</v>
+        <v>-1.9926131973518912</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.7227608025901664</v>
+        <v>0.7190773077139954</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.03393937097567166</v>
+        <v>0.03393570886718653</v>
       </c>
       <c r="AP11" t="n">
-        <v>21.29564519944268</v>
+        <v>21.189399948244283</v>
       </c>
     </row>
     <row r="12">
@@ -1782,10 +1782,10 @@
         <v>0.6982089016340245</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0.16974650726821014</v>
+        <v>-0.19189104450505803</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.1268351254316602</v>
+        <v>-0.1489796626685081</v>
       </c>
       <c r="AJ12" t="n">
         <v>0.0</v>
@@ -1797,16 +1797,16 @@
         <v>5</v>
       </c>
       <c r="AM12" t="n">
-        <v>-2.746670962737509</v>
+        <v>-3.2293122434612735</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.8094306305288094</v>
+        <v>0.8047607487918693</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.034030937261649324</v>
+        <v>0.034025739509808</v>
       </c>
       <c r="AP12" t="n">
-        <v>23.785140688469536</v>
+        <v>23.651528530625914</v>
       </c>
     </row>
     <row r="13">
@@ -1908,10 +1908,10 @@
         <v>0.9679229348630748</v>
       </c>
       <c r="AH13" t="n">
-        <v>-0.16844230774409272</v>
+        <v>-0.19573971972298657</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.17943049682145532</v>
+        <v>-0.20672790880034916</v>
       </c>
       <c r="AJ13" t="n">
         <v>0.0</v>
@@ -1923,16 +1923,16 @@
         <v>5</v>
       </c>
       <c r="AM13" t="n">
-        <v>-3.8929896749422195</v>
+        <v>-4.487938114687211</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.8947549953053396</v>
+        <v>0.888998465633821</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.034131201162357065</v>
+        <v>0.03412412088596913</v>
       </c>
       <c r="AP13" t="n">
-        <v>26.215162808045424</v>
+        <v>26.05190822657506</v>
       </c>
     </row>
     <row r="14">
@@ -2034,10 +2034,10 @@
         <v>1.2383804737428832</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.16639666793409763</v>
+        <v>-0.19926330727813674</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.23233200510949809</v>
+        <v>-0.2651986444535372</v>
       </c>
       <c r="AJ14" t="n">
         <v>0.0</v>
@@ -2049,16 +2049,16 @@
         <v>5</v>
       </c>
       <c r="AM14" t="n">
-        <v>-5.047563324011453</v>
+        <v>-5.788549644696605</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.9773901299051326</v>
+        <v>0.9704591510733902</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.03423787523724677</v>
+        <v>0.03422856620452665</v>
       </c>
       <c r="AP14" t="n">
-        <v>28.54704397198829</v>
+        <v>28.352316754215934</v>
       </c>
     </row>
     <row r="15">
@@ -2160,10 +2160,10 @@
         <v>1.509827665273012</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.1632217133529227</v>
+        <v>-0.20199753060877512</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.2856397730911351</v>
+        <v>-0.3244155903469875</v>
       </c>
       <c r="AJ15" t="n">
         <v>0.0</v>
@@ -2175,16 +2175,16 @@
         <v>5</v>
       </c>
       <c r="AM15" t="n">
-        <v>-6.249399825978452</v>
+        <v>-7.123609989640499</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.055992055154771</v>
+        <v>1.0478149377509935</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.034348081641542016</v>
+        <v>0.03433621956389443</v>
       </c>
       <c r="AP15" t="n">
-        <v>30.74384375160008</v>
+        <v>30.51631632891824</v>
       </c>
     </row>
     <row r="16">
@@ -2286,10 +2286,10 @@
         <v>1.780797071140318</v>
       </c>
       <c r="AH16" t="n">
-        <v>-0.1585279009651198</v>
+        <v>-0.20345928357878315</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.3389523335766881</v>
+        <v>-0.38388371619035144</v>
       </c>
       <c r="AJ16" t="n">
         <v>0.0</v>
@@ -2301,16 +2301,16 @@
         <v>5</v>
       </c>
       <c r="AM16" t="n">
-        <v>-7.4513443761035365</v>
+        <v>-8.476441051703024</v>
       </c>
       <c r="AN16" t="n">
-        <v>1.1292163335181766</v>
+        <v>1.119741118893512</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.034458413921909105</v>
+        <v>0.034443720432976506</v>
       </c>
       <c r="AP16" t="n">
-        <v>32.77040945869555</v>
+        <v>32.50929646442807</v>
       </c>
     </row>
     <row r="17">
@@ -2412,10 +2412,10 @@
         <v>2.052671498563223</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.15192519262232862</v>
+        <v>-0.2031479880941241</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.3926998848322136</v>
+        <v>-0.44392268030400905</v>
       </c>
       <c r="AJ17" t="n">
         <v>0.0</v>
@@ -2427,16 +2427,16 @@
         <v>5</v>
       </c>
       <c r="AM17" t="n">
-        <v>-8.693574549241177</v>
+        <v>-9.955141244059213</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.195717821639954</v>
+        <v>1.1849158620175726</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.03456502360598802</v>
+        <v>0.03454729193114822</v>
       </c>
       <c r="AP17" t="n">
-        <v>34.59328815365857</v>
+        <v>34.29837176178893</v>
       </c>
     </row>
     <row r="18">
@@ -2538,10 +2538,10 @@
         <v>2.323343081522994</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.1430242331253905</v>
+        <v>-0.2005469837879335</v>
       </c>
       <c r="AI18" t="n">
-        <v>-0.4462946936970913</v>
+        <v>-0.5038174443596343</v>
       </c>
       <c r="AJ18" t="n">
         <v>0.0</v>
@@ -2553,16 +2553,16 @@
         <v>5</v>
       </c>
       <c r="AM18" t="n">
-        <v>-10.013561583457179</v>
+        <v>-11.430289931876676</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.2541504219134323</v>
+        <v>1.2420199158701368</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.03466373165684507</v>
+        <v>0.03464285274927803</v>
       </c>
       <c r="AP18" t="n">
-        <v>36.18047919159259</v>
+        <v>35.852125829793884</v>
       </c>
     </row>
     <row r="19">
@@ -2664,10 +2664,10 @@
         <v>2.594359453321492</v>
       </c>
       <c r="AH19" t="n">
-        <v>-0.13143753159612323</v>
+        <v>-0.19512494826270507</v>
       </c>
       <c r="AI19" t="n">
-        <v>-0.5002180877982876</v>
+        <v>-0.5639055044648694</v>
       </c>
       <c r="AJ19" t="n">
         <v>0.0</v>
@@ -2679,16 +2679,16 @@
         <v>5</v>
       </c>
       <c r="AM19" t="n">
-        <v>-11.341641346442284</v>
+        <v>-13.309821960835919</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.3031668333507607</v>
+        <v>1.2897363109251543</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.034750164889610184</v>
+        <v>0.03472615258545925</v>
       </c>
       <c r="AP19" t="n">
-        <v>37.501025894135815</v>
+        <v>37.14020168952436</v>
       </c>
     </row>
     <row r="20">
@@ -2790,10 +2790,10 @@
         <v>2.8640224514473456</v>
       </c>
       <c r="AH20" t="n">
-        <v>-0.11678064482889591</v>
+        <v>-0.1863373463386389</v>
       </c>
       <c r="AI20" t="n">
-        <v>-0.5540073024020731</v>
+        <v>-0.6235640039118161</v>
       </c>
       <c r="AJ20" t="n">
         <v>0.0</v>
@@ -2805,16 +2805,16 @@
         <v>5</v>
       </c>
       <c r="AM20" t="n">
-        <v>-12.98769678068544</v>
+        <v>-15.73311297377797</v>
       </c>
       <c r="AN20" t="n">
-        <v>1.341418302035496</v>
+        <v>1.3267500537633379</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.03481991747385149</v>
+        <v>0.03479293100158517</v>
       </c>
       <c r="AP20" t="n">
-        <v>38.52445379983605</v>
+        <v>38.132747531471004</v>
       </c>
     </row>
     <row r="21">
@@ -2916,10 +2916,10 @@
         <v>3.132999499635505</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.09867336127951007</v>
+        <v>-0.1736279067199838</v>
       </c>
       <c r="AI21" t="n">
-        <v>-0.6078945036023614</v>
+        <v>-0.6828490490428352</v>
       </c>
       <c r="AJ21" t="n">
         <v>0.0</v>
@@ -2931,16 +2931,16 @@
         <v>5</v>
       </c>
       <c r="AM21" t="n">
-        <v>-14.741391470319204</v>
+        <v>-23.942451968241606</v>
       </c>
       <c r="AN21" t="n">
-        <v>1.3675543714408007</v>
+        <v>1.3517478156699865</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.03486873767156221</v>
+        <v>0.03483909964008326</v>
       </c>
       <c r="AP21" t="n">
-        <v>39.22007112279642</v>
+        <v>38.79973448322891</v>
       </c>
     </row>
     <row r="22">
@@ -3042,10 +3042,10 @@
         <v>3.400083441758575</v>
       </c>
       <c r="AH22" t="n">
-        <v>-0.07674088433833147</v>
+        <v>-0.15643012445619756</v>
       </c>
       <c r="AI22" t="n">
-        <v>-0.6615703602190877</v>
+        <v>-0.7412596003369537</v>
       </c>
       <c r="AJ22" t="n">
         <v>0.0</v>
@@ -3057,16 +3057,16 @@
         <v>5</v>
       </c>
       <c r="AM22" t="n">
-        <v>-21.81418705916849</v>
+        <v>-25.0</v>
       </c>
       <c r="AN22" t="n">
-        <v>1.3802226328985716</v>
+        <v>1.363417615793142</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.034892739986935414</v>
+        <v>0.034860947773960926</v>
       </c>
       <c r="AP22" t="n">
-        <v>39.55615504587362</v>
+        <v>39.11017063086089</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/CS300/Aerdoynamic Comparison Results.xlsx
+++ b/JPADSandBox_v2/out/CS300/Aerdoynamic Comparison Results.xlsx
@@ -543,10 +543,10 @@
         <v>-0.059974646419790154</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.03358165110387526</v>
+        <v>0.03370463745452637</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1.7859350105888387</v>
+        <v>-1.7794182328976764</v>
       </c>
     </row>
     <row r="3">
@@ -669,10 +669,10 @@
         <v>0.02718499287085345</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.033579680465720296</v>
+        <v>0.033604948995243814</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.8095667526856057</v>
+        <v>0.8089580161154538</v>
       </c>
     </row>
     <row r="4">
@@ -795,10 +795,10 @@
         <v>0.11418113589614041</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.03358816054668617</v>
+        <v>0.034033929934209936</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.3994459368334065</v>
+        <v>3.3549206958132918</v>
       </c>
     </row>
     <row r="5">
@@ -921,10 +921,10 @@
         <v>0.20101961152855202</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.033607034117061105</v>
+        <v>0.034988685198183114</v>
       </c>
       <c r="AP5" t="n">
-        <v>5.981474319583038</v>
+        <v>5.745274804981541</v>
       </c>
     </row>
     <row r="6">
@@ -1047,10 +1047,10 @@
         <v>0.28770633938880386</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.033636246880734154</v>
+        <v>0.03646646811566845</v>
       </c>
       <c r="AP6" t="n">
-        <v>8.553461401592742</v>
+        <v>7.8896135067488435</v>
       </c>
     </row>
     <row r="7">
@@ -1173,10 +1173,10 @@
         <v>0.374247340620225</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.03367574752246818</v>
+        <v>0.038464682808313846</v>
       </c>
       <c r="AP7" t="n">
-        <v>11.113260080434156</v>
+        <v>9.729635429083386</v>
       </c>
     </row>
     <row r="8">
@@ -1299,10 +1299,10 @@
         <v>0.4606487140244784</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.03372548774107696</v>
+        <v>0.04098088586923354</v>
       </c>
       <c r="AP8" t="n">
-        <v>13.658771003137119</v>
+        <v>11.240574825404423</v>
       </c>
     </row>
     <row r="9">
@@ -1425,10 +1425,10 @@
         <v>0.5469166443179194</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.03378542228999648</v>
+        <v>0.04401278841538578</v>
       </c>
       <c r="AP9" t="n">
-        <v>16.187947559852045</v>
+        <v>12.426312079030442</v>
       </c>
     </row>
     <row r="10">
@@ -1551,10 +1551,10 @@
         <v>0.6330573955628669</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.033855509011093646</v>
+        <v>0.04755825779785022</v>
       </c>
       <c r="AP10" t="n">
-        <v>18.69880010829047</v>
+        <v>13.311198199347896</v>
       </c>
     </row>
     <row r="11">
@@ -1677,10 +1677,10 @@
         <v>0.7190773077139954</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.03393570886718653</v>
+        <v>0.05161531924692535</v>
       </c>
       <c r="AP11" t="n">
-        <v>21.189399948244283</v>
+        <v>13.931470699114774</v>
       </c>
     </row>
     <row r="12">
@@ -1803,10 +1803,10 @@
         <v>0.8047607487918693</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.034025739509808</v>
+        <v>0.05616968963123061</v>
       </c>
       <c r="AP12" t="n">
-        <v>23.651528530625914</v>
+        <v>14.327313433194021</v>
       </c>
     </row>
     <row r="13">
@@ -1929,10 +1929,10 @@
         <v>0.888998465633821</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.03412412088596913</v>
+        <v>0.06114649767023751</v>
       </c>
       <c r="AP13" t="n">
-        <v>26.05190822657506</v>
+        <v>14.538828870104407</v>
       </c>
     </row>
     <row r="14">
@@ -2055,10 +2055,10 @@
         <v>0.9704591510733902</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.03422856620452665</v>
+        <v>0.06643006170762508</v>
       </c>
       <c r="AP14" t="n">
-        <v>28.352316754215934</v>
+        <v>14.608734752417028</v>
       </c>
     </row>
     <row r="15">
@@ -2181,10 +2181,10 @@
         <v>1.0478149377509935</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.03433621956389443</v>
+        <v>0.07187591055863321</v>
       </c>
       <c r="AP15" t="n">
-        <v>30.51631632891824</v>
+        <v>14.578110101245008</v>
       </c>
     </row>
     <row r="16">
@@ -2307,10 +2307,10 @@
         <v>1.119741118893512</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.034443720432976506</v>
+        <v>0.07731404540004483</v>
       </c>
       <c r="AP16" t="n">
-        <v>32.50929646442807</v>
+        <v>14.4830232734512</v>
       </c>
     </row>
     <row r="17">
@@ -2433,10 +2433,10 @@
         <v>1.1849158620175726</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.03454729193114822</v>
+        <v>0.08255340558005234</v>
       </c>
       <c r="AP17" t="n">
-        <v>34.29837176178893</v>
+        <v>14.353325022655248</v>
       </c>
     </row>
     <row r="18">
@@ -2559,10 +2559,10 @@
         <v>1.2420199158701368</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.03464285274927803</v>
+        <v>0.08738753035488336</v>
       </c>
       <c r="AP18" t="n">
-        <v>35.852125829793884</v>
+        <v>14.212781970451127</v>
       </c>
     </row>
     <row r="19">
@@ -2685,10 +2685,10 @@
         <v>1.2897363109251543</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.03472615258545925</v>
+        <v>0.09160141016152135</v>
       </c>
       <c r="AP19" t="n">
-        <v>37.14020168952436</v>
+        <v>14.079873974111907</v>
       </c>
     </row>
     <row r="20">
@@ -2811,10 +2811,10 @@
         <v>1.3267500537633379</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.03479293100158517</v>
+        <v>0.09497952267809454</v>
       </c>
       <c r="AP20" t="n">
-        <v>38.132747531471004</v>
+        <v>13.968801025248055</v>
       </c>
     </row>
     <row r="21">
@@ -2937,10 +2937,10 @@
         <v>1.3517478156699865</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.03483909964008326</v>
+        <v>0.09731505060210924</v>
       </c>
       <c r="AP21" t="n">
-        <v>38.79973448322891</v>
+        <v>13.89042915054178</v>
       </c>
     </row>
     <row r="22">
@@ -3063,10 +3063,10 @@
         <v>1.363417615793142</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.034860947773960926</v>
+        <v>0.09842027978838902</v>
       </c>
       <c r="AP22" t="n">
-        <v>39.11017063086089</v>
+        <v>13.8530150363786</v>
       </c>
     </row>
   </sheetData>
